--- a/ARTIQ_EE/Sayma_RTM.xlsx
+++ b/ARTIQ_EE/Sayma_RTM.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25170" windowHeight="11580"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25170" windowHeight="11250"/>
   </bookViews>
   <sheets>
     <sheet name="Sayma_RTM" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="827" uniqueCount="536">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="863" uniqueCount="563">
   <si>
     <t>#</t>
   </si>
@@ -53,33 +53,6 @@
     <t>Manufacturer</t>
   </si>
   <si>
-    <t>FIDUCIAL_TARGET_C100-200</t>
-  </si>
-  <si>
-    <t>Round Fiducial Target, Top Layer, 1.0mm, Top Solder 2.0mm, Keepout =2.0mm</t>
-  </si>
-  <si>
-    <t>FIDUCIAL_TOP_C100-200</t>
-  </si>
-  <si>
-    <t>FIDUCIAL_TARGET_S100-200</t>
-  </si>
-  <si>
-    <t>Square Fiducial Target, Top Layer, 1.0mm, Top Solder 2.0mm, Keepout =2.0mm</t>
-  </si>
-  <si>
-    <t>FIDUCIAL_TOP_S100-200</t>
-  </si>
-  <si>
-    <t>FIDUCIAL_TARGET_S200-400</t>
-  </si>
-  <si>
-    <t>Square Fiducial Target, Top Layer, 2.0mm, Top Solder 4.0mm, Keepout =4.0mm</t>
-  </si>
-  <si>
-    <t>FIDUCIAL_TOP_S200-400</t>
-  </si>
-  <si>
     <t>PLATED_HOLE1.1_PAD1.6</t>
   </si>
   <si>
@@ -101,7 +74,7 @@
     <t>4.7uF</t>
   </si>
   <si>
-    <t>C1-C47</t>
+    <t>C1-C9,C12,C20-C26,C28,C29,C37-C39,C41-C43,C45-C47,C915</t>
   </si>
   <si>
     <t>CAPMP3528X210N</t>
@@ -122,7 +95,7 @@
     <t>100nF</t>
   </si>
   <si>
-    <t>C48-C53,C57,C58,C63,C67,C68,C73-C75,C78,C86-C88,C93,C97,C98,C103,C107,C108,C113,C117,C118,C123,C126,C129,C132-C161,C163-C167,C171,C172,C177,C181,C182,C187-C189,C192,C200-C202,C207,C211,C212,C217,C221,C222,C227,C231,C232,C237,C240,C243,C246-C275,C277-C380,C382,C384,C386,C388,C390,C392,C394,C396,C398,C400,C402-C421,C423,C425-C441,C445-C458,C460-C474</t>
+    <t>C10,C11,C13-C17,C31-C36,C40,C44,C48-C53,C57,C58,C63,C67,C68,C73-C75,C78,C86-C88,C93,C97,C98,C103,C107,C108,C117-C119,C123,C126,C132-C143,C159,C160,C163-C167,C171,C172,C176,C177,C181,C182,C187-C189,C192,C200-C202,C207,C211,C212,C217,C221,C222,C232,C235-C237,C240,C241,C243,C245,C246,C274,C275,C277-C284,C287-C302,C304,C305,C307,C309-C319,C322-C337,C339,C340,C342-C346,C350-C352,C381-C384,C386,C388,C390,C392,C394,C396,C398,C400,C402,C404,C406,C408-C415,C417,C418,C420-C429,C432-C443,C445-C449,C452,C453,C456-C460,C462-C481,C608,C611,C612,C615-C621,C637-C639,C654-C657,C660-C664,C666,C667,C914,C932,C933</t>
   </si>
   <si>
     <t>CAPC0603X33N</t>
@@ -131,313 +104,388 @@
     <t>CC0201_100NF_6.3V_10%_X5R</t>
   </si>
   <si>
+    <t>Capacitor - non polarized CAPC3216X180N</t>
+  </si>
+  <si>
+    <t>47uF</t>
+  </si>
+  <si>
+    <t>C18</t>
+  </si>
+  <si>
+    <t>CAPC3216X180N</t>
+  </si>
+  <si>
+    <t>C3216X5R1E476M160AC</t>
+  </si>
+  <si>
+    <t>TDK</t>
+  </si>
+  <si>
+    <t>Capacitor - non polarized CAPC1005X55N</t>
+  </si>
+  <si>
+    <t>C19,C30,C99-C102,C109-C112</t>
+  </si>
+  <si>
+    <t>CAPC1005X55N</t>
+  </si>
+  <si>
+    <t>CC0402_100NF_16V_10%_X5R</t>
+  </si>
+  <si>
+    <t>10nF</t>
+  </si>
+  <si>
+    <t>C27,C268,C269</t>
+  </si>
+  <si>
+    <t>CC0402_10NF_25V_10%_X7R</t>
+  </si>
+  <si>
     <t>1nF</t>
   </si>
   <si>
-    <t>C54-C56,C64-C66,C76,C77,C79-C81,C89-C92,C94-C96,C104-C106,C114-C116,C124,C125,C127,C128,C130,C131,C162,C168-C170,C178-C180,C190,C191,C193-C195,C203-C206,C208-C210,C218-C220,C228-C230,C238,C239,C241,C242,C244,C245,C276,C381,C383,C385,C387,C389,C391,C393,C395,C397,C399,C401,C422,C424,C444,C459</t>
+    <t>C54-C56,C64-C66,C76,C77,C79-C81,C89-C92,C94-C96,C104-C106,C114-C116,C124,C125,C128,C130,C162,C168-C170,C178-C180,C190,C191,C193-C195,C203-C206,C208-C210,C218-C220,C228-C230,C238,C239,C242,C244,C276,C387,C389,C391,C393,C395,C397,C399,C401,C403,C405,C407,C444,C461</t>
   </si>
   <si>
     <t>CC0201_1NF_16V_10%_X5R</t>
   </si>
   <si>
+    <t>CC0508_4.7NF_6.3V_20%_X7R_AVX_W2L16C473MAT1S</t>
+  </si>
+  <si>
+    <t>IDC (InterDigitated Capacitors) Low Inductance Capacitor</t>
+  </si>
+  <si>
     <t>4.7nF</t>
   </si>
   <si>
-    <t>C59-C62,C69-C72,C82-C85,C99-C102,C109-C112,C119-C122,C173-C176,C183-C186,C196-C199,C213-C216,C223-C226,C233-C236</t>
-  </si>
-  <si>
-    <t>CC0201_4.7NF_10V_10%_X5R</t>
+    <t>C59-C62,C69-C72,C82-C85</t>
+  </si>
+  <si>
+    <t>CAPCAF50P127X203X55-8N</t>
+  </si>
+  <si>
+    <t>W2L16C473MAT1S</t>
+  </si>
+  <si>
+    <t>AVX</t>
+  </si>
+  <si>
+    <t>2.2nF</t>
+  </si>
+  <si>
+    <t>C113</t>
+  </si>
+  <si>
+    <t>CC0402_2.2NF_50V_10%_X7R</t>
+  </si>
+  <si>
+    <t>Capacitor - non polarized CAPC2012X135N</t>
+  </si>
+  <si>
+    <t>22uF</t>
+  </si>
+  <si>
+    <t>C120-C122,C127,C129,C131,C161,C173-C175,C781</t>
+  </si>
+  <si>
+    <t>CAPC2012X135N</t>
+  </si>
+  <si>
+    <t>CC0805_22UF_6.3V_20%_X5R,CC0805_22UF_16V_10%_X5R</t>
+  </si>
+  <si>
+    <t>Capacitor - non polarized CAPC1608X90N</t>
+  </si>
+  <si>
+    <t>C144-C158,C247-C267,C272,C306,C385,C609,C613,C622,C627,C628,C669-C672,C674-C676,C766,C767,C841,C842,C925,C926</t>
+  </si>
+  <si>
+    <t>CAPC1608X90N</t>
+  </si>
+  <si>
+    <t>CC0603_4.7UF_25V_10%_X5R</t>
+  </si>
+  <si>
+    <t>Capacitor - non polarized CAPC1709X95N</t>
+  </si>
+  <si>
+    <t>C183-C186,C196-C199,C213-C216</t>
+  </si>
+  <si>
+    <t>CAPC1709X95N</t>
+  </si>
+  <si>
+    <t>CC0603_4.7UF_16V_10%_X5R</t>
+  </si>
+  <si>
+    <t>Capacitor - non polarized CAPC2012X140N</t>
+  </si>
+  <si>
+    <t>C223-C227,C231,C233,C234</t>
+  </si>
+  <si>
+    <t>CAPC2012X140N</t>
+  </si>
+  <si>
+    <t>CC0805_47UF_6.3V_20%_X5R</t>
+  </si>
+  <si>
+    <t>Capacitor - polarized CAPMP3216X180N</t>
+  </si>
+  <si>
+    <t>Low ESR 0R9 Solid Tantalum Chip Capacitor</t>
+  </si>
+  <si>
+    <t>C270,C271,C597,C598,C610,C614,C891-C910,C927-C929</t>
+  </si>
+  <si>
+    <t>CAPMP3216X180N</t>
+  </si>
+  <si>
+    <t>CTE3216-18_22UF_6.3V_10%_LESR0900</t>
+  </si>
+  <si>
+    <t>1uF</t>
+  </si>
+  <si>
+    <t>C273,C303,C629-C636,C677,C678,C845-C855,C857-C860,C885</t>
+  </si>
+  <si>
+    <t>CC0402_1UF_16V_10%_X5R</t>
+  </si>
+  <si>
+    <t>10uF</t>
+  </si>
+  <si>
+    <t>C308,C338,C341,C782-C789,C805-C824</t>
+  </si>
+  <si>
+    <t>CC0805_10UF_25V_10%_X5R</t>
+  </si>
+  <si>
+    <t>Capacitor - non polarized CAPC1608X87N</t>
+  </si>
+  <si>
+    <t>10pF</t>
+  </si>
+  <si>
+    <t>C347</t>
+  </si>
+  <si>
+    <t>CAPC1608X87N</t>
+  </si>
+  <si>
+    <t>CC0603_10PF_50V_5%_NP0</t>
+  </si>
+  <si>
+    <t>100pF</t>
+  </si>
+  <si>
+    <t>C348</t>
+  </si>
+  <si>
+    <t>CC0603_100PF_50V_5%_NP0</t>
+  </si>
+  <si>
+    <t>33pF</t>
+  </si>
+  <si>
+    <t>C349</t>
+  </si>
+  <si>
+    <t>CC0603_33PF_50V_5%_NP0</t>
+  </si>
+  <si>
+    <t>C353-C380</t>
+  </si>
+  <si>
+    <t>56pF</t>
+  </si>
+  <si>
+    <t>C416,C451,C454,C455,C510,C594-C596</t>
+  </si>
+  <si>
+    <t>CC0402_56PF_50V_5%_C0G</t>
+  </si>
+  <si>
+    <t>5.6pF</t>
+  </si>
+  <si>
+    <t>C419,C430,C431,C450,C511,C525,C527,C593</t>
+  </si>
+  <si>
+    <t>CC0402_5.6PF_50V_0.25PF_C0G</t>
+  </si>
+  <si>
+    <t>220nF</t>
+  </si>
+  <si>
+    <t>C482-C509,C512-C524,C526,C528-C547</t>
+  </si>
+  <si>
+    <t>CC0201_220NF_6.3V_20%_X5R</t>
+  </si>
+  <si>
+    <t>C548-C572,C668</t>
+  </si>
+  <si>
+    <t>CC1206_10uF_25V_10%_X7R</t>
+  </si>
+  <si>
+    <t>C573-C592,C623-C626,C768,C890</t>
+  </si>
+  <si>
+    <t>CC0603_1NF_50V_5%_NP0</t>
   </si>
   <si>
     <t>DNP</t>
   </si>
   <si>
-    <t>C442,C443</t>
-  </si>
-  <si>
-    <t>220nF</t>
-  </si>
-  <si>
-    <t>C475-C540</t>
-  </si>
-  <si>
-    <t>CC0201_220NF_6.3V_20%_X5R</t>
-  </si>
-  <si>
-    <t>Capacitor - non polarized CAPC3216X180N</t>
-  </si>
-  <si>
-    <t>10uF</t>
-  </si>
-  <si>
-    <t>C541-C565</t>
-  </si>
-  <si>
-    <t>CAPC3216X180N</t>
-  </si>
-  <si>
-    <t>CC1206_10uF_25V_10%_X7R</t>
-  </si>
-  <si>
-    <t>Capacitor - non polarized CAPC1608X90N</t>
-  </si>
-  <si>
-    <t>C566-C585,C616-C619</t>
-  </si>
-  <si>
-    <t>CAPC1608X90N</t>
-  </si>
-  <si>
-    <t>CC0603_1NF_50V_5%_NP0</t>
-  </si>
-  <si>
-    <t>C586-C615,C620,C621</t>
-  </si>
-  <si>
-    <t>CC0603_4.7UF_25V_10%_X5R</t>
-  </si>
-  <si>
-    <t>Capacitor - non polarized CAPC1005X55N</t>
-  </si>
-  <si>
-    <t>1uF</t>
-  </si>
-  <si>
-    <t>C622-C629,C646-C664,C670-C672,C682,C687,C693,C694</t>
-  </si>
-  <si>
-    <t>CAPC1005X55N</t>
-  </si>
-  <si>
-    <t>CC0402_1UF_16V_10%_X5R</t>
-  </si>
-  <si>
-    <t>Reserved Footprint For 0402(1005) Chip Ceramic Capacitor</t>
+    <t>C599</t>
+  </si>
+  <si>
+    <t>0.5pF</t>
+  </si>
+  <si>
+    <t>C600-C607</t>
+  </si>
+  <si>
+    <t>CC0402_0.5PF_25V_0.05PF_C0G</t>
+  </si>
+  <si>
+    <t>22pF</t>
+  </si>
+  <si>
+    <t>C681-C684,C687,C870,C873,C879,C881,C883,C886</t>
+  </si>
+  <si>
+    <t>CC0402_22PF_50V_5%_C0G</t>
+  </si>
+  <si>
+    <t>3.3nF</t>
+  </si>
+  <si>
+    <t>C685,C686,C703-C706</t>
+  </si>
+  <si>
+    <t>CC0402_3.3NF_50V_10%_X7R</t>
+  </si>
+  <si>
+    <t>47nF</t>
+  </si>
+  <si>
+    <t>C688</t>
+  </si>
+  <si>
+    <t>CC0402_47NF_16V_10%_X7R</t>
+  </si>
+  <si>
+    <t>47pF</t>
+  </si>
+  <si>
+    <t>C689</t>
+  </si>
+  <si>
+    <t>CC0402_47PF_50V_5%_C0G</t>
+  </si>
+  <si>
+    <t>Capacitor - polarized CAPMP6032X280N</t>
+  </si>
+  <si>
+    <t>Low ESR 0R350 Solid Tantalum Chip Capacitor</t>
+  </si>
+  <si>
+    <t>C708,C709,C712,C713,C715,C716,C718,C719,C722,C723,C725-C729,C731-C733,C930</t>
+  </si>
+  <si>
+    <t>CAPMP6032X280N</t>
+  </si>
+  <si>
+    <t>CTE6032-28_47UF_16V_10%_LESR0350</t>
+  </si>
+  <si>
+    <t>C734-C765,C916-C924</t>
+  </si>
+  <si>
+    <t>CC0603_10uF_6.3V_20%_X5R</t>
+  </si>
+  <si>
+    <t>Capacitor - non polarized CAPC3225X270N</t>
+  </si>
+  <si>
+    <t>C825-C833,C835-C838,C931</t>
+  </si>
+  <si>
+    <t>CAPC3225X270N</t>
+  </si>
+  <si>
+    <t>CC1210_47UF_10V_10%_X7R</t>
+  </si>
+  <si>
+    <t>Capacitor - polarized CAPMP7343X310N</t>
+  </si>
+  <si>
+    <t>Low ESR 0R015 Tantalum Chip Capacitor</t>
+  </si>
+  <si>
+    <t>330uF</t>
+  </si>
+  <si>
+    <t>C839</t>
+  </si>
+  <si>
+    <t>CAPMP7343X310N</t>
+  </si>
+  <si>
+    <t>T520D337M006ATE015</t>
+  </si>
+  <si>
+    <t>KEMET</t>
+  </si>
+  <si>
+    <t>470nF</t>
+  </si>
+  <si>
+    <t>C864-C869,C872,C874,C875,C878,C882,C884,C887</t>
+  </si>
+  <si>
+    <t>CC0402_470NF_16V_10%_X5R</t>
+  </si>
+  <si>
+    <t>C871</t>
+  </si>
+  <si>
+    <t>CC0402_1NF_50V_10%_X7R</t>
+  </si>
+  <si>
+    <t>Capacitor - non polarized CAPC3216X140N</t>
+  </si>
+  <si>
+    <t>1.2nF</t>
+  </si>
+  <si>
+    <t>C889</t>
+  </si>
+  <si>
+    <t>CAPC3216X140N</t>
+  </si>
+  <si>
+    <t>CC1206_1.2NF_50V_5%_NP0</t>
+  </si>
+  <si>
+    <t>Reserved Footprint For 0805(2012) Chip Ceramic Capacitor</t>
   </si>
   <si>
     <t>Undefined</t>
   </si>
   <si>
-    <t>C630-C645,C665-C669</t>
-  </si>
-  <si>
-    <t>CC0402_NO-VALUE</t>
-  </si>
-  <si>
-    <t>22pF</t>
-  </si>
-  <si>
-    <t>C673-C676,C679</t>
-  </si>
-  <si>
-    <t>CC0402_22PF_50V_5%_C0G</t>
-  </si>
-  <si>
-    <t>3.3nF</t>
-  </si>
-  <si>
-    <t>C677,C678,C689,C692,C695-C698</t>
-  </si>
-  <si>
-    <t>CC0402_3.3NF_50V_10%_X7R</t>
-  </si>
-  <si>
-    <t>47nF</t>
-  </si>
-  <si>
-    <t>C680</t>
-  </si>
-  <si>
-    <t>CC0402_47NF_16V_10%_X7R</t>
-  </si>
-  <si>
-    <t>47pF</t>
-  </si>
-  <si>
-    <t>C681</t>
-  </si>
-  <si>
-    <t>CC0402_47PF_50V_5%_C0G</t>
-  </si>
-  <si>
-    <t>C683-C686</t>
-  </si>
-  <si>
-    <t>CC0402_100NF_16V_10%_X5R</t>
-  </si>
-  <si>
-    <t>150pF</t>
-  </si>
-  <si>
-    <t>C688</t>
-  </si>
-  <si>
-    <t>CC0402_150PF_50V_5%_C0G</t>
-  </si>
-  <si>
-    <t>68pF</t>
-  </si>
-  <si>
-    <t>C690</t>
-  </si>
-  <si>
-    <t>CC0402_68PF_50V_5%_C0G</t>
-  </si>
-  <si>
-    <t>100pF</t>
-  </si>
-  <si>
-    <t>C691</t>
-  </si>
-  <si>
-    <t>CC0402_100PF_50V_5%_C0G</t>
-  </si>
-  <si>
-    <t>Capacitor - polarized CAPMP6032X280N</t>
-  </si>
-  <si>
-    <t>Low ESR 0R350 Solid Tantalum Chip Capacitor</t>
-  </si>
-  <si>
-    <t>47uF</t>
-  </si>
-  <si>
-    <t>C699-C725</t>
-  </si>
-  <si>
-    <t>CAPMP6032X280N</t>
-  </si>
-  <si>
-    <t>CTE6032-28_47UF_16V_10%_LESR0350</t>
-  </si>
-  <si>
-    <t>Capacitor - non polarized CAPC1608X87N</t>
-  </si>
-  <si>
-    <t>C726-C757</t>
-  </si>
-  <si>
-    <t>CAPC1608X87N</t>
-  </si>
-  <si>
-    <t>CC0603_10uF_6.3V_20%_X5R</t>
-  </si>
-  <si>
-    <t>C758,C761</t>
-  </si>
-  <si>
-    <t>CC0603_150PF_50V_5%_NP0</t>
-  </si>
-  <si>
-    <t>10pF</t>
-  </si>
-  <si>
-    <t>C759</t>
-  </si>
-  <si>
-    <t>CC0603_10PF_50V_5%_NP0</t>
-  </si>
-  <si>
-    <t>6.8nF</t>
-  </si>
-  <si>
-    <t>C760</t>
-  </si>
-  <si>
-    <t>CC0603_6.8NF_50V_5%_C0G</t>
-  </si>
-  <si>
-    <t>820pF</t>
-  </si>
-  <si>
-    <t>C762</t>
-  </si>
-  <si>
-    <t>CC0603_820PF_50V_10%_X7R</t>
-  </si>
-  <si>
-    <t>1.5nF</t>
-  </si>
-  <si>
-    <t>C763</t>
-  </si>
-  <si>
-    <t>CC0603_1.5NF_50V_5%_NP0</t>
-  </si>
-  <si>
-    <t>56pF</t>
-  </si>
-  <si>
-    <t>C764,C765</t>
-  </si>
-  <si>
-    <t>CC0603_56PF_50V_5%_NP0</t>
-  </si>
-  <si>
-    <t>Capacitor - non polarized CAPC2012X135N</t>
-  </si>
-  <si>
-    <t>22uF</t>
-  </si>
-  <si>
-    <t>C766,C773,C786-C788,C791-C796</t>
-  </si>
-  <si>
-    <t>CAPC2012X135N</t>
-  </si>
-  <si>
-    <t>CC0805_22UF_6.3V_20%_X5R</t>
-  </si>
-  <si>
-    <t>C767-C772,C774-C785,C789,C790,C797-C816</t>
-  </si>
-  <si>
-    <t>CC0805_10UF_10V_10%_X7R,CC0805_10UF_25V_10%_X5R</t>
-  </si>
-  <si>
-    <t>Capacitor - non polarized CAPC3225X270N</t>
-  </si>
-  <si>
-    <t>C817-C830</t>
-  </si>
-  <si>
-    <t>CAPC3225X270N</t>
-  </si>
-  <si>
-    <t>CC1210_47UF_10V_10%_X7R</t>
-  </si>
-  <si>
-    <t>Capacitor - polarized CAPMP7343X310N</t>
-  </si>
-  <si>
-    <t>Low ESR 0R015 Tantalum Chip Capacitor</t>
-  </si>
-  <si>
-    <t>330uF</t>
-  </si>
-  <si>
-    <t>C831</t>
-  </si>
-  <si>
-    <t>CAPMP7343X310N</t>
-  </si>
-  <si>
-    <t>T520D337M006ATE015</t>
-  </si>
-  <si>
-    <t>KEMET</t>
-  </si>
-  <si>
-    <t>Capacitor - non polarized CAPC3216X140N</t>
-  </si>
-  <si>
-    <t>C832</t>
-  </si>
-  <si>
-    <t>CAPC3216X140N</t>
-  </si>
-  <si>
-    <t>CC1206_22UF_6.3V_20%_X5R</t>
+    <t>C911-C913</t>
+  </si>
+  <si>
+    <t>CC0805_NO-VALUE</t>
   </si>
   <si>
     <t>HSMS-286C-TR1G</t>
@@ -455,13 +503,28 @@
     <t>Avago Technologies</t>
   </si>
   <si>
+    <t>BAT165</t>
+  </si>
+  <si>
+    <t>Medium Power AF Schottky Diode</t>
+  </si>
+  <si>
+    <t>D17</t>
+  </si>
+  <si>
+    <t>SOD2512X110N</t>
+  </si>
+  <si>
+    <t>INFINEON</t>
+  </si>
+  <si>
     <t>TCA9548ARGER</t>
   </si>
   <si>
     <t>Low Voltage 8-Channel I2C Switch With Reset</t>
   </si>
   <si>
-    <t>IC1</t>
+    <t>IC1,IC43</t>
   </si>
   <si>
     <t>QFN50P400X400X100-25N-S220</t>
@@ -497,547 +560,1132 @@
     <t>ANALOG DEVICES</t>
   </si>
   <si>
-    <t>ADP1740ACPZ-1.2-R7</t>
-  </si>
-  <si>
-    <t>1.2V, 2A, Low-Dropout Linear Regulator</t>
-  </si>
-  <si>
-    <t>IC5-IC14</t>
+    <t>LT3045EDD#PBF</t>
+  </si>
+  <si>
+    <t>20V , 500mA, Ultralow Noise,  Ultrahigh PSRR Linear Regulator</t>
+  </si>
+  <si>
+    <t>IC5-IC20,IC23-IC28,IC30-IC32,IC55,IC60-IC63</t>
+  </si>
+  <si>
+    <t>SON50P300X300X80-11N-R175X248</t>
+  </si>
+  <si>
+    <t>AD9656BCPZ-125</t>
+  </si>
+  <si>
+    <t>Quad, 16-Bit, 125 MSPS, JESD204B, 1.8V Analog-to-Digital Converter</t>
+  </si>
+  <si>
+    <t>IC21,IC22</t>
+  </si>
+  <si>
+    <t>QFN50P800X800X80-57N-S670</t>
+  </si>
+  <si>
+    <t>ADP1740ACPZ-1.8-R7</t>
+  </si>
+  <si>
+    <t>1.8V, 2A, Low-Dropout Linear Regulator</t>
+  </si>
+  <si>
+    <t>IC29</t>
   </si>
   <si>
     <t>QFN65P400X400X100-17N-S225</t>
   </si>
   <si>
-    <t>LT1963AEST-3.3#PBF</t>
-  </si>
-  <si>
-    <t>3.3V, 1.5A, Low Noise, Fast Transient Response LDO Regulator</t>
-  </si>
-  <si>
-    <t>IC15-IC20</t>
-  </si>
-  <si>
-    <t>SOT230P700X180-4N</t>
+    <t>ADM7151ACPZ</t>
+  </si>
+  <si>
+    <t>Adjustable 1.5V to 5.1V, 800 mA Ultralow Noise, High PSRR, RF Linear Regulator</t>
+  </si>
+  <si>
+    <t>IC33</t>
+  </si>
+  <si>
+    <t>SON50P300X300X80-9N-R170X244</t>
+  </si>
+  <si>
+    <t>LTC6957IDD-1#PBF</t>
+  </si>
+  <si>
+    <t>Low Phase Noise, Dual  Output Buffer/Driver/  Logic Converter</t>
+  </si>
+  <si>
+    <t>IC34,IC53</t>
+  </si>
+  <si>
+    <t>SON45P300X300X80-7N-R170X240</t>
+  </si>
+  <si>
+    <t>Linear Technology</t>
+  </si>
+  <si>
+    <t>TXB0304RUTR</t>
+  </si>
+  <si>
+    <t>4-bit Bidirectional Auto-direction Sensing Translator with Fully Symmetric 0.9V to 3.6V Range</t>
+  </si>
+  <si>
+    <t>IC35</t>
+  </si>
+  <si>
+    <t>TEXAS_RUT (R-PUQFN-N12)</t>
+  </si>
+  <si>
+    <t>AD7194BCPZ</t>
+  </si>
+  <si>
+    <t>8-Channel, 4.8 kHz, Ultralow Noise, 24-Bit Sigma-Delta ADC with PGA</t>
+  </si>
+  <si>
+    <t>IC36</t>
+  </si>
+  <si>
+    <t>QFN50P500X500X80-33N-S365</t>
+  </si>
+  <si>
+    <t>ADR440BRZ</t>
+  </si>
+  <si>
+    <t>2.048V Output, ±1mV ±0.05% Accuracy, 3ppm/°C Ultralow Noise XFET Voltage References with Current Sink and Source Capability</t>
+  </si>
+  <si>
+    <t>IC37</t>
+  </si>
+  <si>
+    <t>Si5324C-C-GM</t>
+  </si>
+  <si>
+    <t>Any Frequency Precision Clock Multiplier/Jitter Attenuator</t>
+  </si>
+  <si>
+    <t>IC38</t>
+  </si>
+  <si>
+    <t>QFN50P600X600X90-37N-S425</t>
+  </si>
+  <si>
+    <t>SILICON LABS</t>
+  </si>
+  <si>
+    <t>LM75AIMM/NOPB</t>
+  </si>
+  <si>
+    <t>-25° to +100°C ±2°C Digital Temperature Sensor and Thermal Watchdog with Two-Wire Interface</t>
+  </si>
+  <si>
+    <t>IC39,IC40</t>
+  </si>
+  <si>
+    <t>SOP65P490X109-8N</t>
+  </si>
+  <si>
+    <t>24LC64-I/MS</t>
+  </si>
+  <si>
+    <t>2.5V-5.5V, 64K (8K x 8-bit) I2C Serial EEPROM</t>
+  </si>
+  <si>
+    <t>IC41</t>
+  </si>
+  <si>
+    <t>SOP65P490X110-8N</t>
+  </si>
+  <si>
+    <t>MICROCHIP TECHNOLOGY</t>
+  </si>
+  <si>
+    <t>PCF8574ADW</t>
+  </si>
+  <si>
+    <t>Remote 8-bit I/O Expander For I2C Bus</t>
+  </si>
+  <si>
+    <t>IC42</t>
+  </si>
+  <si>
+    <t>SOIC127P1030X265-16N</t>
+  </si>
+  <si>
+    <t>MAX6642ATT90+T</t>
+  </si>
+  <si>
+    <t>0°C to +125°C, ±1°C, SMBus-Compatible Remote/Local Temperature Sensor with Overtemperature Alarm (Address 1001 000)</t>
+  </si>
+  <si>
+    <t>IC44</t>
+  </si>
+  <si>
+    <t>SON95P300X300X80-7N-R160X240</t>
+  </si>
+  <si>
+    <t>MAXIM</t>
+  </si>
+  <si>
+    <t>ADCLK948BCPZ</t>
+  </si>
+  <si>
+    <t>Two Selectable Inputs, 8 LVPECL Outputs,  SiGe Clock Fanout Buffer</t>
+  </si>
+  <si>
+    <t>IC45,IC46,IC52,IC54</t>
+  </si>
+  <si>
+    <t>CP_32_8</t>
+  </si>
+  <si>
+    <t>Analog Devices</t>
+  </si>
+  <si>
+    <t>LTM4619EV#PBF</t>
+  </si>
+  <si>
+    <t>4.5V-26.5V To 0.8V-5V, Iout 4A Dual DC-DC uModule Regulator</t>
+  </si>
+  <si>
+    <t>IC47,IC48</t>
+  </si>
+  <si>
+    <t>LGA144S127P12X12_1500X1500X292R</t>
   </si>
   <si>
     <t>LINEAR TECHNOLOGY</t>
   </si>
   <si>
-    <t>AD9656BCPZ-125</t>
-  </si>
-  <si>
-    <t>Quad, 16-Bit, 125 MSPS, JESD204B, 1.8V Analog-to-Digital Converter</t>
-  </si>
-  <si>
-    <t>IC21,IC22</t>
-  </si>
-  <si>
-    <t>QFN50P800X800X80-57N-S670</t>
-  </si>
-  <si>
-    <t>ADP1740ACPZ-1.8-R7</t>
-  </si>
-  <si>
-    <t>1.8V, 2A, Low-Dropout Linear Regulator</t>
-  </si>
-  <si>
-    <t>IC23-IC29</t>
-  </si>
-  <si>
-    <t>Si53307</t>
-  </si>
-  <si>
-    <t>2:2 LOW  JITTER  UNIVERSAL  BUFFER /LEVEL  TRANSLATOR</t>
-  </si>
-  <si>
-    <t>IC30</t>
-  </si>
-  <si>
-    <t>QFN50P300X300X100-17N-S165</t>
+    <t>LTM8049</t>
+  </si>
+  <si>
+    <t>Dual SEPIC or Inverting  µModule DC/DC Converter</t>
+  </si>
+  <si>
+    <t>IC50,IC51</t>
+  </si>
+  <si>
+    <t>BGA77C127P7X11_900X1500X512</t>
+  </si>
+  <si>
+    <t>LTM8049EY#PBF</t>
+  </si>
+  <si>
+    <t>ADT7420UCPZ-R2</t>
+  </si>
+  <si>
+    <t>-20° to +105°C ±0.25°C Accurate, 16-Bit Digital I2C Temperature Sensor</t>
+  </si>
+  <si>
+    <t>IC56,IC57</t>
+  </si>
+  <si>
+    <t>QFN65P400X400X80-17N-S270</t>
+  </si>
+  <si>
+    <t>HMC7043LP7FE</t>
+  </si>
+  <si>
+    <t>High Performance, 3.2GHz, 14-Output Fanout Buffer</t>
+  </si>
+  <si>
+    <t>IC58</t>
+  </si>
+  <si>
+    <t>QFN50P700X700X100-49N-S565</t>
+  </si>
+  <si>
+    <t>HMC830LP6GE</t>
+  </si>
+  <si>
+    <t>Fractional-N PLL With Integrated VCO, 25 to 3000MHz</t>
+  </si>
+  <si>
+    <t>IC59</t>
+  </si>
+  <si>
+    <t>QFN50P600X600X90-41N-S475</t>
+  </si>
+  <si>
+    <t>HITTITE MICROWAVE CORP</t>
+  </si>
+  <si>
+    <t>XR77129ELB</t>
+  </si>
+  <si>
+    <t>Quad Channel Digital PWM/PFM Proggrammable Power Management System</t>
+  </si>
+  <si>
+    <t>IC64</t>
+  </si>
+  <si>
+    <t>QFN50P700X700X80-45N-S520</t>
+  </si>
+  <si>
+    <t>EXAR</t>
+  </si>
+  <si>
+    <t>TYCO_6469183-1a</t>
+  </si>
+  <si>
+    <t>60 Positions, Pitch 2.5mm,  Advanced TCA, Z-PACK HM-Zd Right Angle Press Fit Header</t>
+  </si>
+  <si>
+    <t>J1,J2</t>
+  </si>
+  <si>
+    <t>6469183-1</t>
+  </si>
+  <si>
+    <t>TYCO</t>
+  </si>
+  <si>
+    <t>TYCO_1469265-1</t>
+  </si>
+  <si>
+    <t>Universal Right Angle Male Power Module Guide (keyed)</t>
+  </si>
+  <si>
+    <t>J3</t>
+  </si>
+  <si>
+    <t>1469265-1</t>
+  </si>
+  <si>
+    <t>TYCO ELECTRONICS</t>
+  </si>
+  <si>
+    <t>CINCH_142-0761-801</t>
+  </si>
+  <si>
+    <t>SMA 50 Ohm High Frequency End Launch SMA Jack Receptacle (10mil Pin)</t>
+  </si>
+  <si>
+    <t>J4</t>
+  </si>
+  <si>
+    <t>142-0761-801</t>
+  </si>
+  <si>
+    <t>CINCH CONNECTIVITY</t>
+  </si>
+  <si>
+    <t>SAMTEC_LSS-120-03-L-DV-A</t>
+  </si>
+  <si>
+    <t>40 Contacts, Pitch 0.635mm, Razor Beam LSS Vertical High Speed Hermaphroditic Strip (Lead Style 5.49mm)</t>
+  </si>
+  <si>
+    <t>J5-J9</t>
+  </si>
+  <si>
+    <t>LSS-120-03-L-DV-A</t>
+  </si>
+  <si>
+    <t>SAMTEC</t>
+  </si>
+  <si>
+    <t>AMPHENOL_SMP-MSLD-PCT-10</t>
+  </si>
+  <si>
+    <t>50 Ohms, SMP Surface Mount Plug, Limited Detent</t>
+  </si>
+  <si>
+    <t>J10-J15,J20-J25,J30-J35,J40-J45</t>
+  </si>
+  <si>
+    <t>SMP-MSLD-PCT-10</t>
+  </si>
+  <si>
+    <t>AMPHENOL</t>
+  </si>
+  <si>
+    <t>MOLEX_85305-0232</t>
+  </si>
+  <si>
+    <t>J16-J19,J26-J29,J36-J39,J46-J55</t>
+  </si>
+  <si>
+    <t>85305-0232</t>
+  </si>
+  <si>
+    <t>MOLEX</t>
+  </si>
+  <si>
+    <t>HIROSE_U.FL-R-SMT-1(10)</t>
+  </si>
+  <si>
+    <t>Up to 6GHz Ultra Small Surface Mount Male Coaxial Connectors U.FL Series</t>
+  </si>
+  <si>
+    <t>J56-J63,J68,J69</t>
+  </si>
+  <si>
+    <t>U.FL-R-SMT-1(10)</t>
+  </si>
+  <si>
+    <t>HIROSE (HRS)</t>
+  </si>
+  <si>
+    <t>J64-J67</t>
+  </si>
+  <si>
+    <t>CON_SATA_67800-5005</t>
+  </si>
+  <si>
+    <t>High Performance Cable Connectors 7Ckt Vert Signal Hdr SMT w/ locking latch</t>
+  </si>
+  <si>
+    <t>J70,J71</t>
+  </si>
+  <si>
+    <t>67800-5005</t>
+  </si>
+  <si>
+    <t>Molex</t>
+  </si>
+  <si>
+    <t>SAMTEC_MTLW-106-07-L-D-250</t>
+  </si>
+  <si>
+    <t>12 Contacts - Pitch 2.54mm - Dual Row Through Mount Straight Header (Post Lead = 6.35mm, Tail Lead 3.05mm, Insulator 1.52mm)</t>
+  </si>
+  <si>
+    <t>J72</t>
+  </si>
+  <si>
+    <t>MTLW-106-07-L-D-250</t>
+  </si>
+  <si>
+    <t>RADIALL_R694252107</t>
+  </si>
+  <si>
+    <t>COAXIPAK 2 Series, 6 Ways 50 ohm RF Coaxial Right Angle Jack Module</t>
+  </si>
+  <si>
+    <t>J73</t>
+  </si>
+  <si>
+    <t>R694252107</t>
+  </si>
+  <si>
+    <t>RADIALL</t>
+  </si>
+  <si>
+    <t>ERNI_973028</t>
+  </si>
+  <si>
+    <t>J74</t>
+  </si>
+  <si>
+    <t>ERNI</t>
+  </si>
+  <si>
+    <t>IND0603_MURATA_BLM18PG300SN1D</t>
+  </si>
+  <si>
+    <t>SMD EMIFIL Chip Ferrite Bead</t>
+  </si>
+  <si>
+    <t>30R@100MHz</t>
+  </si>
+  <si>
+    <t>L1-L3,L5-L7,L9,L10,L39,L40,L82,L83</t>
+  </si>
+  <si>
+    <t>INDC1608X95N</t>
+  </si>
+  <si>
+    <t>BLM18PG300SN1D</t>
+  </si>
+  <si>
+    <t>MURATA</t>
+  </si>
+  <si>
+    <t>IND0603_MURATA_BLM18PG121SN1D</t>
+  </si>
+  <si>
+    <t>120R@100MHz</t>
+  </si>
+  <si>
+    <t>L4,L8,L36,L37,L41-L59,L73-L77,L84,L85,L87-L89</t>
+  </si>
+  <si>
+    <t>BLM18PG121SN1D</t>
+  </si>
+  <si>
+    <t>IND1806_MURATA_BLM41PG181SN1L</t>
+  </si>
+  <si>
+    <t>SMD EMI Suppression Chip Ferrite Bead (BLM41P Serie)</t>
+  </si>
+  <si>
+    <t>180R@100MHz</t>
+  </si>
+  <si>
+    <t>L11-L35,L38</t>
+  </si>
+  <si>
+    <t>INDC4516X180N</t>
+  </si>
+  <si>
+    <t>BLM41PG181SN1L</t>
+  </si>
+  <si>
+    <t>IND_2.2UH_20%_BOURNS_SRP6540</t>
+  </si>
+  <si>
+    <t>Shielded SMD Power Inductor</t>
+  </si>
+  <si>
+    <t>2.2uH</t>
+  </si>
+  <si>
+    <t>L61,L64-L70,L92</t>
+  </si>
+  <si>
+    <t>IND_BOURNS_SRP6540</t>
+  </si>
+  <si>
+    <t>SRP6540-2R2M</t>
+  </si>
+  <si>
+    <t>BOURNS</t>
+  </si>
+  <si>
+    <t>IND0402_MURATA_BLM15HB221SN1</t>
+  </si>
+  <si>
+    <t>SMD EMIFIL Suppression Chip Ferrite Bead</t>
+  </si>
+  <si>
+    <t>220R@100MHz</t>
+  </si>
+  <si>
+    <t>L62,L63</t>
+  </si>
+  <si>
+    <t>INDC1005X55N</t>
+  </si>
+  <si>
+    <t>BLM15HB221SN1</t>
+  </si>
+  <si>
+    <t>IND1806_MURATA_BLM41PG600SN1L</t>
+  </si>
+  <si>
+    <t>60R@100MHz</t>
+  </si>
+  <si>
+    <t>L72,L80,L81,L86</t>
+  </si>
+  <si>
+    <t>BLM41PG600SN1L</t>
+  </si>
+  <si>
+    <t>IND0402_MURATA_BLM15PX121SN1D</t>
+  </si>
+  <si>
+    <t>L78</t>
+  </si>
+  <si>
+    <t>BLM15PX121SN1D</t>
+  </si>
+  <si>
+    <t>IND0805_47NH_5%_EPCOS_B82498B</t>
+  </si>
+  <si>
+    <t>SMT Inductor SIMID Series</t>
+  </si>
+  <si>
+    <t>47nH</t>
+  </si>
+  <si>
+    <t>L79</t>
+  </si>
+  <si>
+    <t>INDC2014X145N</t>
+  </si>
+  <si>
+    <t>B82498B3470J</t>
+  </si>
+  <si>
+    <t>EPCOS</t>
+  </si>
+  <si>
+    <t>IND2020_4.7UH_20%_VISHAY_IHLP-2020BZ-11</t>
+  </si>
+  <si>
+    <t>Low Profile, High Current IHLP® Inductor</t>
+  </si>
+  <si>
+    <t>4.7uH</t>
+  </si>
+  <si>
+    <t>L90,L91</t>
+  </si>
+  <si>
+    <t>INDM5552X200N</t>
+  </si>
+  <si>
+    <t>IHLP2020BZER4R7M11</t>
+  </si>
+  <si>
+    <t>VISHAY DALE</t>
+  </si>
+  <si>
+    <t>LED_AVAGO_HSMR-C120</t>
+  </si>
+  <si>
+    <t>High Performance Right Angle Chip InGaN Blue LED</t>
+  </si>
+  <si>
+    <t>LD1</t>
+  </si>
+  <si>
+    <t>LED_AVAGO_HSME-C120</t>
+  </si>
+  <si>
+    <t>HSMR-C120</t>
+  </si>
+  <si>
+    <t>AVAGO TECHNOLOGIES</t>
+  </si>
+  <si>
+    <t>High Performance Right Angle Chip Green LED</t>
+  </si>
+  <si>
+    <t>LD2</t>
+  </si>
+  <si>
+    <t>HSME-C120</t>
+  </si>
+  <si>
+    <t>LED_OSRAM_LG L29K-G2J1-24-Z</t>
+  </si>
+  <si>
+    <t>Surface Mount Green LED (0603 Case)</t>
+  </si>
+  <si>
+    <t>LD3-LD14</t>
+  </si>
+  <si>
+    <t>LED_OSRAM_LGL29K</t>
+  </si>
+  <si>
+    <t>LG L29K-G2J1-24-Z</t>
+  </si>
+  <si>
+    <t>OSRAM</t>
+  </si>
+  <si>
+    <t>OSC_200MHZ_SILICON-LAB_510ABA200M000AAG</t>
+  </si>
+  <si>
+    <t>crystal oscillator, 200MHz, 100ppm, 3.3V, LVDS, 5x7mm</t>
+  </si>
+  <si>
+    <t>OSC2</t>
+  </si>
+  <si>
+    <t>OSC_SILICON-LAB_SI510-6N</t>
+  </si>
+  <si>
+    <t>510ABA200M000AAG</t>
   </si>
   <si>
     <t>Silicon Labs</t>
   </si>
   <si>
-    <t>ADCLK948BCPZ</t>
-  </si>
-  <si>
-    <t>Two Selectable Inputs, 8 LVPECL Outputs,  SiGe Clock Fanout Buffer</t>
-  </si>
-  <si>
-    <t>IC31</t>
-  </si>
-  <si>
-    <t>CP_32_8</t>
-  </si>
-  <si>
-    <t>Analog Devices</t>
-  </si>
-  <si>
-    <t>LTC6957IDD-1#PBF</t>
-  </si>
-  <si>
-    <t>Low Phase Noise, Dual  Output Buffer/Driver/  Logic Converter</t>
-  </si>
-  <si>
-    <t>IC32,IC33</t>
-  </si>
-  <si>
-    <t>SON45P300X300X80-7N-R170X240</t>
-  </si>
-  <si>
-    <t>Linear Technology</t>
-  </si>
-  <si>
-    <t>HMC7044LP10BE</t>
-  </si>
-  <si>
-    <t>High Performance, 3.2 GHz, 14-Output Jitter Attenuator with JESD204B</t>
-  </si>
-  <si>
-    <t>IC34</t>
-  </si>
-  <si>
-    <t>QFN50P1000X1000X90-69N-S640</t>
-  </si>
-  <si>
-    <t>AD7194BCPZ</t>
-  </si>
-  <si>
-    <t>8-Channel, 4.8 kHz, Ultralow Noise, 24-Bit Sigma-Delta ADC with PGA</t>
-  </si>
-  <si>
-    <t>IC35</t>
-  </si>
-  <si>
-    <t>QFN50P500X500X80-33N-S365</t>
-  </si>
-  <si>
-    <t>ADR440BRZ</t>
-  </si>
-  <si>
-    <t>2.048V Output, ±1mV ±0.05% Accuracy, 3ppm/°C Ultralow Noise XFET Voltage References with Current Sink and Source Capability</t>
-  </si>
-  <si>
-    <t>IC36</t>
-  </si>
-  <si>
-    <t>Si5324C-C-GM</t>
-  </si>
-  <si>
-    <t>Any Frequency Precision Clock Multiplier/Jitter Attenuator</t>
-  </si>
-  <si>
-    <t>IC37</t>
-  </si>
-  <si>
-    <t>QFN50P600X600X90-37N-S425</t>
-  </si>
-  <si>
-    <t>SILICON LABS</t>
-  </si>
-  <si>
-    <t>LM75AIMM/NOPB</t>
-  </si>
-  <si>
-    <t>-25° to +100°C ±2°C Digital Temperature Sensor and Thermal Watchdog with Two-Wire Interface</t>
-  </si>
-  <si>
-    <t>IC38,IC39</t>
-  </si>
-  <si>
-    <t>SOP65P490X109-8N</t>
-  </si>
-  <si>
-    <t>24LC64-I/MS</t>
-  </si>
-  <si>
-    <t>2.5V-5.5V, 64K (8K x 8-bit) I2C Serial EEPROM</t>
-  </si>
-  <si>
-    <t>IC40</t>
-  </si>
-  <si>
-    <t>SOP65P490X110-8N</t>
-  </si>
-  <si>
-    <t>MICROCHIP TECHNOLOGY</t>
-  </si>
-  <si>
-    <t>PCA9554PW</t>
-  </si>
-  <si>
-    <t>8-Bit I2C-Bus and SMBus I/O Port with Interrupt</t>
-  </si>
-  <si>
-    <t>IC41</t>
-  </si>
-  <si>
-    <t>SOP65P640X110-16N</t>
+    <t>OSC_50MHZ_CTS_636L3I050M00000</t>
+  </si>
+  <si>
+    <t>3.3V, ±50ppm, 30pF, -40..85°C, HCMOS/TTL Clock Oscillator, 636 Series</t>
+  </si>
+  <si>
+    <t>50MHz</t>
+  </si>
+  <si>
+    <t>OSC3</t>
+  </si>
+  <si>
+    <t>OSCSC254P320X500X130-4N</t>
+  </si>
+  <si>
+    <t>636L3I050M00000</t>
+  </si>
+  <si>
+    <t>CTS ELECTRONIC COMPONENTS</t>
+  </si>
+  <si>
+    <t>SW_C&amp;K_HDT0001</t>
+  </si>
+  <si>
+    <t>5VDC 1mA SPST-NO Micro Mini Surface Surface Mount Detect Push-Button Switch, HDT Serie</t>
+  </si>
+  <si>
+    <t>PB1</t>
+  </si>
+  <si>
+    <t>HDT0001</t>
+  </si>
+  <si>
+    <t>C&amp;K</t>
+  </si>
+  <si>
+    <t>XTAL_114.285MHZ_CONNOR_CS-023</t>
+  </si>
+  <si>
+    <t>±20ppm 18pF -40°C to +85°C  4 Pins, 3.2x2.5X0.8mm, SMD Crystal Unit, CS-018 Series</t>
+  </si>
+  <si>
+    <t>114.285MHZ</t>
+  </si>
+  <si>
+    <t>Q1</t>
+  </si>
+  <si>
+    <t>XTAL_CONNOR_CS</t>
+  </si>
+  <si>
+    <t>CS-023-114.285M</t>
+  </si>
+  <si>
+    <t>CONNOR-WINFIELD</t>
+  </si>
+  <si>
+    <t>Resistor - 1% RESC1005X40N</t>
+  </si>
+  <si>
+    <t>General Purpose Thick Film Chip Resistor</t>
+  </si>
+  <si>
+    <t>2k2</t>
+  </si>
+  <si>
+    <t>R1-R16,R20,R21,R98,R131,R157</t>
+  </si>
+  <si>
+    <t>R0402_2K2_1%_0.0625W_100PPM</t>
+  </si>
+  <si>
+    <t>1A (0.05R Max DC Resistance) Zero Ohm Jumper</t>
+  </si>
+  <si>
+    <t>R17-R19,R27,R37,R89,R90,R101,R106-R108,R111,R112,R116,R121,R122,R130,R141,R142,R150,R152,R155,R156,R166,R168-R171,R177,R180,R238-R240,R250-R253</t>
+  </si>
+  <si>
+    <t>R0402_0R_JUMPER</t>
+  </si>
+  <si>
+    <t>R22-R25</t>
+  </si>
+  <si>
+    <t>R0402_1R_1%_0.0625W_200PPM</t>
+  </si>
+  <si>
+    <t>R28,R29,R32-R35,R38,R39,R145,R146,R211-R216</t>
+  </si>
+  <si>
+    <t>R0402_22R_1%_0.0625W_100PPM</t>
+  </si>
+  <si>
+    <t>4R99</t>
+  </si>
+  <si>
+    <t>R30,R31,R40-R45,R190,R210,R217-R222</t>
+  </si>
+  <si>
+    <t>R0402_4R99_1%_0.0625W_100PPM</t>
+  </si>
+  <si>
+    <t>R46-R56,R61-R88,R93,R94,R102-R105,R110,R123-R128,R235,R259</t>
+  </si>
+  <si>
+    <t>R0402_200R_1%_0.0625W_100PPM</t>
+  </si>
+  <si>
+    <t>R58,R59,R100,R109,R241</t>
+  </si>
+  <si>
+    <t>49R9</t>
+  </si>
+  <si>
+    <t>R60,R91,R92,R115,R129</t>
+  </si>
+  <si>
+    <t>R0402_49R9_1%_0.0625W_100PPM</t>
+  </si>
+  <si>
+    <t>13k</t>
+  </si>
+  <si>
+    <t>R96</t>
+  </si>
+  <si>
+    <t>R0402_13K_1%_0.0625W_100PPM</t>
+  </si>
+  <si>
+    <t>R57,R95,R113,R114,R117,R147,R242,R316</t>
+  </si>
+  <si>
+    <t>R0402_100R_1%_0.1W_100PPM_50V,R0402_100R_1%_0.0625W_100PPM</t>
+  </si>
+  <si>
+    <t>4k7</t>
+  </si>
+  <si>
+    <t>R118,R185</t>
+  </si>
+  <si>
+    <t>R0402_4K7_1%_0.0625W_100PPM</t>
+  </si>
+  <si>
+    <t>R138-R140</t>
+  </si>
+  <si>
+    <t>R0402_330R_1%_0.0625W_100PPM</t>
+  </si>
+  <si>
+    <t>30k</t>
+  </si>
+  <si>
+    <t>R144</t>
+  </si>
+  <si>
+    <t>R0402_30K_1%_0.0625W_100PPM</t>
+  </si>
+  <si>
+    <t>2k</t>
+  </si>
+  <si>
+    <t>R149,R151,R164,R308</t>
+  </si>
+  <si>
+    <t>R0402_2K_1%_0.0625W_100PPM</t>
+  </si>
+  <si>
+    <t>9k31</t>
+  </si>
+  <si>
+    <t>R153,R154</t>
+  </si>
+  <si>
+    <t>R0402_9K31_1%_0.0625W_100PPM</t>
+  </si>
+  <si>
+    <t>130k</t>
+  </si>
+  <si>
+    <t>R176</t>
+  </si>
+  <si>
+    <t>R0402_130K_1%_0.0625W_100PPM</t>
+  </si>
+  <si>
+    <t>68k</t>
+  </si>
+  <si>
+    <t>R181,R183</t>
+  </si>
+  <si>
+    <t>R0402_68K_1%_0.0625W_100PPM</t>
+  </si>
+  <si>
+    <t>4k3</t>
+  </si>
+  <si>
+    <t>R182,R184</t>
+  </si>
+  <si>
+    <t>R0402_4K3_1%_0.0625W_100PPM</t>
+  </si>
+  <si>
+    <t>Resistor - 1% RESC5025X65N</t>
+  </si>
+  <si>
+    <t>Thick Film Chip Resistor</t>
+  </si>
+  <si>
+    <t>1M</t>
+  </si>
+  <si>
+    <t>R186,R187,R309</t>
+  </si>
+  <si>
+    <t>R2010_1M_1%_0.5W_200PPM</t>
+  </si>
+  <si>
+    <t>Resistor - 0.1% RESC1608X55N</t>
+  </si>
+  <si>
+    <t>Thin Film Chip Resistor</t>
+  </si>
+  <si>
+    <t>4k02</t>
+  </si>
+  <si>
+    <t>R188,R189</t>
+  </si>
+  <si>
+    <t>R0603_4K02_0.1%_0.063W_10PPM</t>
+  </si>
+  <si>
+    <t>40k2</t>
+  </si>
+  <si>
+    <t>R191</t>
+  </si>
+  <si>
+    <t>R0603_40K2_0.1%_0.063W_10PPM</t>
+  </si>
+  <si>
+    <t>15k</t>
+  </si>
+  <si>
+    <t>R192</t>
+  </si>
+  <si>
+    <t>R0603_15K_0.1%_0.063W_10PPM</t>
+  </si>
+  <si>
+    <t>80k6</t>
+  </si>
+  <si>
+    <t>R205,R206,R208,R209</t>
+  </si>
+  <si>
+    <t>R0603_80K6_0.1%_0.063W_10PPM</t>
+  </si>
+  <si>
+    <t>143k</t>
+  </si>
+  <si>
+    <t>R207</t>
+  </si>
+  <si>
+    <t>R0603_143K_0.1%_0.063W_10PPM</t>
+  </si>
+  <si>
+    <t>33k2</t>
+  </si>
+  <si>
+    <t>R223-R225,R243,R248,R287,R288,R301-R304</t>
+  </si>
+  <si>
+    <t>R0603_33K2_0.1%_0.063W_10PPM</t>
+  </si>
+  <si>
+    <t>Resistor RES_VISHAY_PZR2512</t>
+  </si>
+  <si>
+    <t>6.3A (0.025R Max DC Resistance) Thin Film Chip Resistor (Strap)</t>
+  </si>
+  <si>
+    <t>R226-R229</t>
+  </si>
+  <si>
+    <t>PZR2512-0R00NT</t>
+  </si>
+  <si>
+    <t>VISHAY SFERNICE</t>
+  </si>
+  <si>
+    <t>R236</t>
+  </si>
+  <si>
+    <t>R0402_51R_1%_0.0625W_100PPM</t>
+  </si>
+  <si>
+    <t>1k69</t>
+  </si>
+  <si>
+    <t>R246</t>
+  </si>
+  <si>
+    <t>R0603_1K69_0.1%_0.063W_10PPM</t>
+  </si>
+  <si>
+    <t>3k09</t>
+  </si>
+  <si>
+    <t>R247</t>
+  </si>
+  <si>
+    <t>R0603_3K09_0.1%_0.063W_10PPM</t>
+  </si>
+  <si>
+    <t>49k9</t>
+  </si>
+  <si>
+    <t>R249</t>
+  </si>
+  <si>
+    <t>R0603_49K9_0.1%_0.063W_10PPM</t>
+  </si>
+  <si>
+    <t>18k</t>
+  </si>
+  <si>
+    <t>R281-R286</t>
+  </si>
+  <si>
+    <t>R0402_18K_1%_0.0625W_100PPM</t>
+  </si>
+  <si>
+    <t>R289-R300</t>
+  </si>
+  <si>
+    <t>R0603_13K_0.1%_0.063W_10PPM</t>
+  </si>
+  <si>
+    <t>Resistor - 1% RESC3216X80N</t>
+  </si>
+  <si>
+    <t>Low Value Flat Chip Resistor</t>
+  </si>
+  <si>
+    <t>0R02</t>
+  </si>
+  <si>
+    <t>R305,R306</t>
+  </si>
+  <si>
+    <t>LRF1206-R020FI</t>
+  </si>
+  <si>
+    <t>TT WELWYN</t>
+  </si>
+  <si>
+    <t>Resistor - 1% RESC1608X55N</t>
+  </si>
+  <si>
+    <t>100k</t>
+  </si>
+  <si>
+    <t>R307</t>
+  </si>
+  <si>
+    <t>R0603_100K_1%_0.1W_100PPM</t>
+  </si>
+  <si>
+    <t>,General Purpose Thick Film Chip Resistor</t>
+  </si>
+  <si>
+    <t>10k</t>
+  </si>
+  <si>
+    <t>R26,R36,R97,R99,R132-R137,R143,R148,R158-R163,R172-R174,R178,R179,R254-R258,R261-R263,R268-R270,R310,R313-R315</t>
+  </si>
+  <si>
+    <t>R0402_10K_1%_0.0625W_100PPM</t>
+  </si>
+  <si>
+    <t>R311,R312</t>
+  </si>
+  <si>
+    <t>R0402_240R_1%_0.0625W_100PPM</t>
+  </si>
+  <si>
+    <t>MSBOX_WURTH_36103305</t>
+  </si>
+  <si>
+    <t>Shielding Cabinet SMD-Frame WE-SHC, Internal Dimensions 30 x 30mm</t>
+  </si>
+  <si>
+    <t>SH2-SH4</t>
+  </si>
+  <si>
+    <t>WURTH</t>
+  </si>
+  <si>
+    <t>BSS138LT1G</t>
+  </si>
+  <si>
+    <t>50V 200mA N-Channel Enhancement Mode Field-Effect Transistor</t>
+  </si>
+  <si>
+    <t>T1,T2,T5,T6</t>
+  </si>
+  <si>
+    <t>SOT95P240X110-3N</t>
+  </si>
+  <si>
+    <t>ON SEMICONDUCTOR</t>
+  </si>
+  <si>
+    <t>BC847BV</t>
+  </si>
+  <si>
+    <t>45V 100mA NPN General Purpose Double Transistor</t>
+  </si>
+  <si>
+    <t>T3,T7</t>
+  </si>
+  <si>
+    <t>SOTFL50P160X60-6N</t>
   </si>
   <si>
     <t>NXP SEMICONDUCTORS</t>
   </si>
   <si>
-    <t>TCA9517DGKR</t>
-  </si>
-  <si>
-    <t>Level-Translating I2C Bus Repeater</t>
-  </si>
-  <si>
-    <t>IC42</t>
-  </si>
-  <si>
-    <t>MAX6642ATT90+T</t>
-  </si>
-  <si>
-    <t>0°C to +125°C, ±1°C, SMBus-Compatible Remote/Local Temperature Sensor with Overtemperature Alarm (Address 1001 000)</t>
-  </si>
-  <si>
-    <t>IC43</t>
-  </si>
-  <si>
-    <t>SON95P300X300X80-7N-R160X240</t>
-  </si>
-  <si>
-    <t>MAXIM</t>
-  </si>
-  <si>
-    <t>ADM7151ACPZ</t>
-  </si>
-  <si>
-    <t>Adjustable 1.5V to 5.1V, 800 mA Ultralow Noise, High PSRR, RF Linear Regulator</t>
-  </si>
-  <si>
-    <t>IC44</t>
-  </si>
-  <si>
-    <t>SON50P300X300X80-9N-R170X244</t>
-  </si>
-  <si>
-    <t>LT3015EDD#PBF</t>
-  </si>
-  <si>
-    <t>–1.22V to –29.3V, 1.5A, Low Noise, Negative Linear Regulator with Precision Current Limit</t>
-  </si>
-  <si>
-    <t>IC45</t>
-  </si>
-  <si>
-    <t>SON50P300X300X80-9N-R175X248</t>
-  </si>
-  <si>
-    <t>LTM4619EV#PBF</t>
-  </si>
-  <si>
-    <t>4.5V-26.5V To 0.8V-5V, Iout 4A Dual DC-DC uModule Regulator</t>
-  </si>
-  <si>
-    <t>IC46,IC47</t>
-  </si>
-  <si>
-    <t>LGA144S127P12X12_1500X1500X292R</t>
-  </si>
-  <si>
-    <t>ADP5052ACPZ</t>
-  </si>
-  <si>
-    <t>5-Channel Integrated Power Solution with Quad buck Regulators and 200mA LDO Regulator</t>
-  </si>
-  <si>
-    <t>IC48</t>
-  </si>
-  <si>
-    <t>QFN50P700X700X80-49N-S570</t>
-  </si>
-  <si>
-    <t>LTM8049</t>
-  </si>
-  <si>
-    <t>Dual SEPIC or Inverting  µModule DC/DC Converter</t>
-  </si>
-  <si>
-    <t>IC49,IC50</t>
-  </si>
-  <si>
-    <t>BGA77C127P7X11_900X1500X512</t>
-  </si>
-  <si>
-    <t>LTM8049EY#PBF</t>
-  </si>
-  <si>
-    <t>TYCO_6469183-1</t>
-  </si>
-  <si>
-    <t>60 Positions, Pitch 2.5mm,  Advanced TCA, Z-PACK HM-Zd Right Angle Press Fit Header</t>
-  </si>
-  <si>
-    <t>J1,J2</t>
-  </si>
-  <si>
-    <t>6469183-1</t>
-  </si>
-  <si>
-    <t>TYCO ELECTRONICS</t>
-  </si>
-  <si>
-    <t>TYCO_1469265-1</t>
-  </si>
-  <si>
-    <t>Universal Right Angle Male Power Module Guide (keyed)</t>
-  </si>
-  <si>
-    <t>J3</t>
-  </si>
-  <si>
-    <t>1469265-1</t>
-  </si>
-  <si>
-    <t>CINCH_142-0761-801</t>
-  </si>
-  <si>
-    <t>SMA 50 Ohm High Frequency End Launch SMA Jack Receptacle (10mil Pin)</t>
-  </si>
-  <si>
-    <t>J4</t>
-  </si>
-  <si>
-    <t>142-0761-801</t>
-  </si>
-  <si>
-    <t>CINCH CONNECTIVITY</t>
-  </si>
-  <si>
-    <t>MOLEX_73415-3320</t>
-  </si>
-  <si>
-    <t>50 Ohm SMP Vertical Plug</t>
-  </si>
-  <si>
-    <t>J5-J50</t>
-  </si>
-  <si>
-    <t>73415-3320</t>
-  </si>
-  <si>
-    <t>MOLEX</t>
-  </si>
-  <si>
-    <t>SAMTEC_LSS-120-03-L-DV-A</t>
-  </si>
-  <si>
-    <t>40 Contacts, Pitch 0.635mm, Razor Beam LSS Vertical High Speed Hermaphroditic Strip (Lead Style 5.49mm)</t>
-  </si>
-  <si>
-    <t>J51-J55</t>
-  </si>
-  <si>
-    <t>LSS-120-03-L-DV-A</t>
-  </si>
-  <si>
-    <t>SAMTEC</t>
-  </si>
-  <si>
-    <t>CON_SATA_67800-5005</t>
-  </si>
-  <si>
-    <t>High Performance Cable Connectors 7Ckt Vert Signal Hdr SMT w/ locking latch</t>
-  </si>
-  <si>
-    <t>J56,J57</t>
-  </si>
-  <si>
-    <t>67800-5005</t>
-  </si>
-  <si>
-    <t>Molex</t>
-  </si>
-  <si>
-    <t>SAMTEC_MTLW-106-07-L-D-250</t>
-  </si>
-  <si>
-    <t>12 Contacts - Pitch 2.54mm - Dual Row Through Mount Straight Header (Post Lead = 6.35mm, Tail Lead 3.05mm, Insulator 1.52mm)</t>
-  </si>
-  <si>
-    <t>J58</t>
-  </si>
-  <si>
-    <t>MTLW-106-07-L-D-250</t>
-  </si>
-  <si>
-    <t>ERmetZD 3-10 Connector 3</t>
-  </si>
-  <si>
-    <t>J200</t>
-  </si>
-  <si>
-    <t>ERNI</t>
-  </si>
-  <si>
-    <t>CoaxiPack (Radiall)</t>
-  </si>
-  <si>
-    <t>Coaxipack 2</t>
-  </si>
-  <si>
-    <t>J201</t>
-  </si>
-  <si>
-    <t>Radiall</t>
-  </si>
-  <si>
-    <t>IND0603_MURATA_BLM18PG300SN1D</t>
-  </si>
-  <si>
-    <t>SMD EMIFIL Chip Ferrite Bead</t>
-  </si>
-  <si>
-    <t>30R@100MHz</t>
-  </si>
-  <si>
-    <t>L1-L10</t>
-  </si>
-  <si>
-    <t>INDC1608X95N</t>
-  </si>
-  <si>
-    <t>BLM18PG300SN1D</t>
-  </si>
-  <si>
-    <t>MURATA</t>
-  </si>
-  <si>
-    <t>IND1806_MURATA_BLM41PG181SN1L</t>
-  </si>
-  <si>
-    <t>SMD EMI Suppression Chip Ferrite Bead (BLM41P Serie)</t>
-  </si>
-  <si>
-    <t>180R@100MHz</t>
-  </si>
-  <si>
-    <t>L11-L35</t>
-  </si>
-  <si>
-    <t>INDC4516X180N</t>
-  </si>
-  <si>
-    <t>BLM41PG181SN1L</t>
-  </si>
-  <si>
-    <t>IND0603_MURATA_BLM18PG121SN1D</t>
-  </si>
-  <si>
-    <t>120R@100MHz</t>
-  </si>
-  <si>
-    <t>L36-L60</t>
-  </si>
-  <si>
-    <t>BLM18PG121SN1D</t>
-  </si>
-  <si>
-    <t>IND0402_MURATA_BLM15HB221SN1</t>
-  </si>
-  <si>
-    <t>SMD EMIFIL Suppression Chip Ferrite Bead</t>
-  </si>
-  <si>
-    <t>220R@100MHz</t>
-  </si>
-  <si>
-    <t>L61,L62</t>
-  </si>
-  <si>
-    <t>INDC1005X55N</t>
-  </si>
-  <si>
-    <t>BLM15HB221SN1</t>
-  </si>
-  <si>
-    <t>IND_2.2UH_30%_BOURNS_SRN8040</t>
-  </si>
-  <si>
-    <t>Semi-Shielded SMD Power Inductor</t>
-  </si>
-  <si>
-    <t>2.2uH</t>
-  </si>
-  <si>
-    <t>L63-L67</t>
-  </si>
-  <si>
-    <t>IND_BOURNS_SRN8040</t>
-  </si>
-  <si>
-    <t>SRN8040-2R2Y</t>
-  </si>
-  <si>
-    <t>BOURNS</t>
-  </si>
-  <si>
-    <t>IND_2.2UH_20%_BOURNS_SRP6540</t>
-  </si>
-  <si>
-    <t>Shielded SMD Power Inductor</t>
-  </si>
-  <si>
-    <t>L68-L71</t>
-  </si>
-  <si>
-    <t>IND_BOURNS_SRP6540</t>
-  </si>
-  <si>
-    <t>SRP6540-2R2M</t>
-  </si>
-  <si>
-    <t>IND_10UH_20%_COILCRAFT_DO3316P-103MLD</t>
-  </si>
-  <si>
-    <t>SMT Power Inductor</t>
-  </si>
-  <si>
-    <t>10uH</t>
-  </si>
-  <si>
-    <t>L72,L73</t>
-  </si>
-  <si>
-    <t>IND_COILCRAFT_DO3316</t>
-  </si>
-  <si>
-    <t>DO3316P-103MLD</t>
-  </si>
-  <si>
-    <t>COILCRAFT</t>
-  </si>
-  <si>
-    <t>LED_AVAGO_HSMR-C120</t>
-  </si>
-  <si>
-    <t>High Performance Right Angle Chip InGaN Blue LED</t>
-  </si>
-  <si>
-    <t>LD1</t>
-  </si>
-  <si>
-    <t>LED_AVAGO_HSME-C120</t>
-  </si>
-  <si>
-    <t>HSMR-C120</t>
-  </si>
-  <si>
-    <t>AVAGO TECHNOLOGIES</t>
-  </si>
-  <si>
-    <t>High Performance Right Angle Chip Green LED</t>
-  </si>
-  <si>
-    <t>LD2</t>
-  </si>
-  <si>
-    <t>HSME-C120</t>
+    <t>FDMS7608S</t>
+  </si>
+  <si>
+    <t>30V Dual N-Channel PowerTrench® MOSFET</t>
+  </si>
+  <si>
+    <t>T4,T8-T10</t>
+  </si>
+  <si>
+    <t>FAIRCHILD_FDMS7608S</t>
+  </si>
+  <si>
+    <t>FAIRCHILD SEMICONDUCTOR</t>
+  </si>
+  <si>
+    <t>SMD_PAD_1.27X1.27MM</t>
+  </si>
+  <si>
+    <t>1.27mm x 1.27mm PCB Copper Area (SMD Test Point)</t>
+  </si>
+  <si>
+    <t>TP1-TP11</t>
+  </si>
+  <si>
+    <t>TPS127</t>
+  </si>
+  <si>
+    <t>XFMR_MINI-CIRCUITS_TCM2-43X+</t>
+  </si>
+  <si>
+    <t>50 Ohms 10 to 4000MHz RF Transformer</t>
+  </si>
+  <si>
+    <t>TR1-TR4</t>
+  </si>
+  <si>
+    <t>XFMR_MINI-CIRCUITS_DB1627</t>
+  </si>
+  <si>
+    <t>TCM2-43X+</t>
+  </si>
+  <si>
+    <t>MINI-CIRCUITS</t>
+  </si>
+  <si>
+    <t>XC7A15T-1CSG325</t>
+  </si>
+  <si>
+    <t>Artix-7 FPGA, 170 User I/Os, 0 GTP, 256-Ball BGA, Speed Grade 1, Commercial Grade, Pb-Free</t>
+  </si>
+  <si>
+    <t>U1</t>
+  </si>
+  <si>
+    <t>BGA324C80P18X18_1500X1500X150</t>
+  </si>
+  <si>
+    <t>XILINX</t>
   </si>
   <si>
     <t>LED_OSRAM_LS Q976-NR-1</t>
@@ -1046,7 +1694,7 @@
     <t>CHIPLED Super Red LED (0603 Case)</t>
   </si>
   <si>
-    <t>LD3,LD4</t>
+    <t>U2</t>
   </si>
   <si>
     <t>LED_OSRAM_LS Q976</t>
@@ -1055,583 +1703,16 @@
     <t>LS Q976-NR-1</t>
   </si>
   <si>
-    <t>OSRAM</t>
-  </si>
-  <si>
-    <t>LED_OSRAM_LG L29K-G2J1-24-Z</t>
-  </si>
-  <si>
-    <t>Surface Mount Green LED (0603 Case)</t>
-  </si>
-  <si>
-    <t>LD5-LD13</t>
-  </si>
-  <si>
-    <t>LED_OSRAM_LGL29K</t>
-  </si>
-  <si>
-    <t>LG L29K-G2J1-24-Z</t>
-  </si>
-  <si>
-    <t>OSC_125MHZ_ONSEMI_NBVSPA019LNHTAG</t>
-  </si>
-  <si>
-    <t>3.3V, ±50ppm, 7x5mm Surface Mount LVDS Voltage Controlled Oscillator VCXO, NBVSP Series</t>
-  </si>
-  <si>
-    <t>125MHz</t>
-  </si>
-  <si>
-    <t>OSC1</t>
-  </si>
-  <si>
-    <t>OSC_ONSEMI_CASE 848AB-01</t>
-  </si>
-  <si>
-    <t>NBVSPA019LNHTAG</t>
-  </si>
-  <si>
-    <t>ON SEMICONDUCTOR</t>
-  </si>
-  <si>
-    <t>OSC_50MHZ_EPSON_SG-310SCN</t>
-  </si>
-  <si>
-    <t>3.3V ±100ppm 15pF -40..85°C Stanby Function , Surface Mount Crystal Oscillator (SG-310 Series)</t>
-  </si>
-  <si>
-    <t>50MHz</t>
-  </si>
-  <si>
-    <t>OSC2</t>
-  </si>
-  <si>
-    <t>OSC_EPSON_SG-310</t>
-  </si>
-  <si>
-    <t>SG-310 SCN 50.0000MJ</t>
-  </si>
-  <si>
-    <t>EPSON TOYOCOM</t>
-  </si>
-  <si>
-    <t>SW_C&amp;K_HDT0001</t>
-  </si>
-  <si>
-    <t>5VDC 1mA SPST-NO Micro Mini Surface Surface Mount Detect Push-Button Switch, HDT Serie</t>
-  </si>
-  <si>
-    <t>PB1</t>
-  </si>
-  <si>
-    <t>HDT0001</t>
-  </si>
-  <si>
-    <t>C&amp;K</t>
-  </si>
-  <si>
-    <t>XTAL_114.285MHZ_CONNOR_CS-023</t>
-  </si>
-  <si>
-    <t>±20ppm 18pF -40°C to +85°C  4 Pins, 3.2x2.5X0.8mm, SMD Crystal Unit, CS-018 Series</t>
-  </si>
-  <si>
-    <t>114.285MHZ</t>
-  </si>
-  <si>
-    <t>Q1</t>
-  </si>
-  <si>
-    <t>XTAL_CONNOR_CS</t>
-  </si>
-  <si>
-    <t>CS-023-114.285M</t>
-  </si>
-  <si>
-    <t>CONNOR-WINFIELD</t>
-  </si>
-  <si>
-    <t>Resistor - 1% RESC1005X40N</t>
-  </si>
-  <si>
-    <t>General Purpose Thick Film Chip Resistor</t>
-  </si>
-  <si>
-    <t>2k2</t>
-  </si>
-  <si>
-    <t>R1-R16,R20,R21</t>
-  </si>
-  <si>
-    <t>R0402_2K2_1%_0.0625W_100PPM</t>
-  </si>
-  <si>
-    <t>1A (0.05R Max DC Resistance) Zero Ohm Jumper</t>
-  </si>
-  <si>
-    <t>R17-R19,R27,R37,R56,R57,R88,R89,R100,R101,R105,R106,R111,R112,R116,R124,R144,R146,R149,R157,R162,R163,R171,R174</t>
-  </si>
-  <si>
-    <t>R0402_0R_JUMPER</t>
-  </si>
-  <si>
-    <t>R22-R25</t>
-  </si>
-  <si>
-    <t>R0402_1R_1%_0.0625W_200PPM</t>
-  </si>
-  <si>
-    <t>10k</t>
-  </si>
-  <si>
-    <t>R26,R36,R96,R99,R125-R131,R135-R137,R151-R154,R156,R164,R165,R172,R173</t>
-  </si>
-  <si>
-    <t>R0402_10K_1%_0.0625W_100PPM</t>
-  </si>
-  <si>
-    <t>49R9</t>
-  </si>
-  <si>
-    <t>R28-R35,R38-R45,R97,R98,R115,R123</t>
-  </si>
-  <si>
-    <t>R0402_49R9_1%_0.0625W_100PPM</t>
-  </si>
-  <si>
-    <t>R46-R55,R58-R87,R90-R95,R103,R104,R107,R108,R121,R122</t>
-  </si>
-  <si>
-    <t>R0402_200R_1%_0.0625W_100PPM</t>
-  </si>
-  <si>
-    <t>R102</t>
-  </si>
-  <si>
-    <t>R0402_430R_1%_0.0625W_100PPM</t>
-  </si>
-  <si>
-    <t>Reserved Footprint For a 0402 (1005) Chip Resistor</t>
-  </si>
-  <si>
-    <t>R109,R110</t>
-  </si>
-  <si>
-    <t>R0402_NO-VALUE</t>
-  </si>
-  <si>
-    <t>R113,R114,R117,R141</t>
-  </si>
-  <si>
-    <t>R0402_100R_1%_0.1W_100PPM_50V,R0402_100R_1%_0.0625W_100PPM</t>
-  </si>
-  <si>
-    <t>4k7</t>
-  </si>
-  <si>
-    <t>R118-R120,R150,R166-R168,R179</t>
-  </si>
-  <si>
-    <t>R0402_4K7_1%_0.0625W_100PPM</t>
-  </si>
-  <si>
-    <t>R132-R134</t>
-  </si>
-  <si>
-    <t>R0402_330R_1%_0.0625W_100PPM</t>
-  </si>
-  <si>
-    <t>13k</t>
-  </si>
-  <si>
-    <t>R138</t>
-  </si>
-  <si>
-    <t>R0402_13K_1%_0.0625W_100PPM</t>
-  </si>
-  <si>
-    <t>30k</t>
-  </si>
-  <si>
-    <t>R139</t>
-  </si>
-  <si>
-    <t>R0402_30K_1%_0.0625W_100PPM</t>
-  </si>
-  <si>
-    <t>12k1</t>
-  </si>
-  <si>
-    <t>R140</t>
-  </si>
-  <si>
-    <t>R0402_12K1_1%_0.0625W_100PPM</t>
-  </si>
-  <si>
-    <t>2k</t>
-  </si>
-  <si>
-    <t>R142,R143,R145,R161,R169</t>
-  </si>
-  <si>
-    <t>R0402_2K_1%_0.0625W_100PPM</t>
-  </si>
-  <si>
-    <t>9k31</t>
-  </si>
-  <si>
-    <t>R147,R148,R155</t>
-  </si>
-  <si>
-    <t>R0402_9K31_1%_0.0625W_100PPM</t>
-  </si>
-  <si>
-    <t>22k</t>
-  </si>
-  <si>
-    <t>R158,R159</t>
-  </si>
-  <si>
-    <t>R0402_22K_1%_0.0625W_100PPM</t>
-  </si>
-  <si>
-    <t>46k4</t>
-  </si>
-  <si>
-    <t>R160</t>
-  </si>
-  <si>
-    <t>R0402_46K4_1%_0.0625W_100PPM</t>
-  </si>
-  <si>
-    <t>130k</t>
-  </si>
-  <si>
-    <t>R170</t>
-  </si>
-  <si>
-    <t>R0402_130K_1%_0.0625W_100PPM</t>
-  </si>
-  <si>
-    <t>68k</t>
-  </si>
-  <si>
-    <t>R175,R177</t>
-  </si>
-  <si>
-    <t>R0402_68K_1%_0.0625W_100PPM</t>
-  </si>
-  <si>
-    <t>4k3</t>
-  </si>
-  <si>
-    <t>R176,R178</t>
-  </si>
-  <si>
-    <t>R0402_4K3_1%_0.0625W_100PPM</t>
-  </si>
-  <si>
-    <t>Resistor - 1% RESC5025X65N</t>
-  </si>
-  <si>
-    <t>Thick Film Chip Resistor</t>
-  </si>
-  <si>
-    <t>1M</t>
-  </si>
-  <si>
-    <t>R180,R181</t>
-  </si>
-  <si>
-    <t>R2010_1M_1%_0.5W_200PPM</t>
-  </si>
-  <si>
-    <t>Resistor - 0.1% RESC1608X55N</t>
-  </si>
-  <si>
-    <t>Thin Film Chip Resistor</t>
-  </si>
-  <si>
-    <t>4k02</t>
-  </si>
-  <si>
-    <t>R182,R183</t>
-  </si>
-  <si>
-    <t>R0603_4K02_0.1%_0.063W_10PPM</t>
-  </si>
-  <si>
-    <t>37k4</t>
-  </si>
-  <si>
-    <t>R184</t>
-  </si>
-  <si>
-    <t>R0603_37K4_0.1%_0.063W_10PPM</t>
-  </si>
-  <si>
-    <t>40k2</t>
-  </si>
-  <si>
-    <t>R185</t>
-  </si>
-  <si>
-    <t>R0603_40K2_0.1%_0.063W_10PPM</t>
-  </si>
-  <si>
-    <t>15k</t>
-  </si>
-  <si>
-    <t>R186</t>
-  </si>
-  <si>
-    <t>R0603_15K_0.1%_0.063W_10PPM</t>
-  </si>
-  <si>
-    <t>16k2</t>
-  </si>
-  <si>
-    <t>R187</t>
-  </si>
-  <si>
-    <t>R0603_16K2_0.1%_0.063W_10PPM</t>
-  </si>
-  <si>
-    <t>35k7</t>
-  </si>
-  <si>
-    <t>R188</t>
-  </si>
-  <si>
-    <t>R0603_35K7_0.1%_0.063W_10PPM</t>
-  </si>
-  <si>
-    <t>3k74</t>
-  </si>
-  <si>
-    <t>R189</t>
-  </si>
-  <si>
-    <t>R0603_3K74_0.1%_0.063W_10PPM</t>
-  </si>
-  <si>
-    <t>23k2</t>
-  </si>
-  <si>
-    <t>R190,R196</t>
-  </si>
-  <si>
-    <t>R0603_23K2_0.1%_0.063W_10PPM</t>
-  </si>
-  <si>
-    <t>41k2</t>
-  </si>
-  <si>
-    <t>R192</t>
-  </si>
-  <si>
-    <t>R0603_41K2_0.1%_0.063W_10PPM</t>
-  </si>
-  <si>
-    <t>13k3</t>
-  </si>
-  <si>
-    <t>R193</t>
-  </si>
-  <si>
-    <t>R0603_13K3_0.1%_0.063W_10PPM</t>
-  </si>
-  <si>
-    <t>43k2</t>
-  </si>
-  <si>
-    <t>R194</t>
-  </si>
-  <si>
-    <t>R0603_43K2_0.1%_0.063W_10PPM</t>
-  </si>
-  <si>
-    <t>60k4</t>
-  </si>
-  <si>
-    <t>R195</t>
-  </si>
-  <si>
-    <t>R0603_60K4_0.1%_0.063W_10PPM</t>
-  </si>
-  <si>
-    <t>80k6</t>
-  </si>
-  <si>
-    <t>R197,R198,R200,R201</t>
-  </si>
-  <si>
-    <t>R0603_80K6_0.1%_0.063W_10PPM</t>
-  </si>
-  <si>
-    <t>143k</t>
-  </si>
-  <si>
-    <t>R199</t>
-  </si>
-  <si>
-    <t>R0603_143K_0.1%_0.063W_10PPM</t>
-  </si>
-  <si>
-    <t>Resistor RESC1608X55N</t>
-  </si>
-  <si>
-    <t>R202-R217</t>
-  </si>
-  <si>
-    <t>R0603_0R_JUMPER</t>
-  </si>
-  <si>
-    <t>Resistor RES_VISHAY_PZR2512</t>
-  </si>
-  <si>
-    <t>6.3A (0.025R Max DC Resistance) Thin Film Chip Resistor (Strap)</t>
-  </si>
-  <si>
-    <t>R218-R221</t>
-  </si>
-  <si>
-    <t>PZR2512-0R00NT</t>
-  </si>
-  <si>
-    <t>VISHAY SFERNICE</t>
-  </si>
-  <si>
-    <t>Resistor RESC2012X60N</t>
-  </si>
-  <si>
-    <t>2A (0.05R Max DC Resistance) Zero Ohm Jumper</t>
-  </si>
-  <si>
-    <t>R222-R225</t>
-  </si>
-  <si>
-    <t>R0805_0R_JUMPER</t>
-  </si>
-  <si>
-    <t>Resistor - 0.1% RESC1608X50N</t>
-  </si>
-  <si>
-    <t>64k9</t>
-  </si>
-  <si>
-    <t>R226</t>
-  </si>
-  <si>
-    <t>R0603_64K9_0.1%_0.063W_10PPM</t>
-  </si>
-  <si>
-    <t>28k7</t>
-  </si>
-  <si>
-    <t>R227</t>
-  </si>
-  <si>
-    <t>R0603_28K7_0.1%_0.063W_10PPM</t>
-  </si>
-  <si>
-    <t>2k61</t>
-  </si>
-  <si>
-    <t>R228</t>
-  </si>
-  <si>
-    <t>R0603_2K61_0.1%_0.063W_10PPM</t>
-  </si>
-  <si>
-    <t>Resistor - 0.1% RESC1005X35N</t>
-  </si>
-  <si>
-    <t>Thin Film Precision Resistor</t>
-  </si>
-  <si>
-    <t>6k49</t>
-  </si>
-  <si>
-    <t>R229</t>
-  </si>
-  <si>
-    <t>R0402_6K49_0.1%_0.063W_25PPM</t>
-  </si>
-  <si>
-    <t>BSS138LT1G</t>
-  </si>
-  <si>
-    <t>50V 200mA N-Channel Enhancement Mode Field-Effect Transistor</t>
-  </si>
-  <si>
-    <t>T1</t>
-  </si>
-  <si>
-    <t>SOT95P240X110-3N</t>
-  </si>
-  <si>
-    <t>PMGD280UN</t>
-  </si>
-  <si>
-    <t>20V 870mA Dual N-Channel micro TrenchMOS™ Ultra Low Level FET</t>
-  </si>
-  <si>
-    <t>T2</t>
-  </si>
-  <si>
-    <t>SOT65P210X110-6N</t>
-  </si>
-  <si>
-    <t>BC847BV</t>
-  </si>
-  <si>
-    <t>45V 100mA NPN General Purpose Double Transistor</t>
-  </si>
-  <si>
-    <t>T3</t>
-  </si>
-  <si>
-    <t>SOTFL50P160X60-6N</t>
-  </si>
-  <si>
-    <t>FDS9926A</t>
-  </si>
-  <si>
-    <t>20V DUAL N-Channel 2.5V Specified PowerTrench® MOSFET</t>
-  </si>
-  <si>
-    <t>T4</t>
-  </si>
-  <si>
-    <t>FAIRCHILD SEMICONDUCTOR</t>
-  </si>
-  <si>
-    <t>SMD_PAD_1.27X1.27MM</t>
-  </si>
-  <si>
-    <t>1.27mm x 1.27mm PCB Copper Area (SMD Test Point)</t>
-  </si>
-  <si>
-    <t>TP1-TP8</t>
-  </si>
-  <si>
-    <t>TPS127</t>
-  </si>
-  <si>
-    <t>XC7A15T-1CSG325</t>
-  </si>
-  <si>
-    <t>Artix-7 FPGA, 170 User I/Os, 0 GTP, 256-Ball BGA, Speed Grade 1, Commercial Grade, Pb-Free</t>
-  </si>
-  <si>
-    <t>U1</t>
-  </si>
-  <si>
-    <t>BGA324C80P18X18_1500X1500X150</t>
-  </si>
-  <si>
-    <t>XILINX</t>
+    <t>SAMTEC_MTLW-104-07-L-S-250</t>
+  </si>
+  <si>
+    <t>4 Contacts - Pitch 2.54mm - Single Row Through Mount Straight Header (Post Lead = 6.35mm, Tail Lead 3.05mm, Insulator 1.52mm)</t>
+  </si>
+  <si>
+    <t>W1</t>
+  </si>
+  <si>
+    <t>MTLW-104-07-L-S-250</t>
   </si>
 </sst>
 </file>
@@ -1668,8 +1749,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -1950,7 +2032,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I135"/>
+  <dimension ref="A1:I138"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1990,7 +2072,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
@@ -1998,8 +2080,11 @@
       <c r="D2" t="s">
         <v>10</v>
       </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
       <c r="G2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -2007,16 +2092,28 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" t="s">
+        <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>14</v>
+        <v>17</v>
+      </c>
+      <c r="H3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -2024,16 +2121,28 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>263</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>21</v>
+      </c>
+      <c r="E4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" t="s">
+        <v>23</v>
       </c>
       <c r="G4" t="s">
-        <v>17</v>
+        <v>24</v>
+      </c>
+      <c r="H4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -2041,19 +2150,28 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="E5" t="s">
+        <v>27</v>
       </c>
       <c r="F5" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="G5" t="s">
-        <v>21</v>
+        <v>29</v>
+      </c>
+      <c r="H5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -2061,28 +2179,28 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" t="s">
         <v>22</v>
       </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" t="s">
-        <v>24</v>
-      </c>
       <c r="F6" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="H6" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="I6" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -2090,28 +2208,28 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>300</v>
+        <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="E7" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F7" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H7" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="I7" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -2119,28 +2237,28 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D8" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="E8" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F8" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G8" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="H8" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="I8" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -2148,28 +2266,28 @@
         <v>8</v>
       </c>
       <c r="B9">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>45</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
         <v>48</v>
-      </c>
-      <c r="C9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" t="s">
-        <v>38</v>
-      </c>
-      <c r="F9" t="s">
-        <v>39</v>
-      </c>
-      <c r="G9" t="s">
-        <v>33</v>
-      </c>
-      <c r="H9" t="s">
-        <v>40</v>
-      </c>
-      <c r="I9" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -2177,28 +2295,28 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D10" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="E10" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F10" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H10" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="I10" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -2206,28 +2324,28 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>66</v>
+        <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="D11" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="E11" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="F11" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="G11" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="H11" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="I11" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -2235,28 +2353,28 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="C12" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D12" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="E12" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="F12" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="G12" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="H12" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="I12" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -2264,28 +2382,28 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="D13" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="E13" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="F13" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="G13" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="H13" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="I13" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -2293,28 +2411,28 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="D14" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="E14" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F14" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="G14" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="H14" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="I14" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -2322,28 +2440,28 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C15" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="D15" t="s">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="E15" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F15" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="G15" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="H15" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="I15" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -2351,28 +2469,28 @@
         <v>15</v>
       </c>
       <c r="B16">
+        <v>28</v>
+      </c>
+      <c r="C16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" t="s">
         <v>21</v>
       </c>
-      <c r="C16" t="s">
-        <v>57</v>
-      </c>
-      <c r="D16" t="s">
-        <v>62</v>
-      </c>
       <c r="E16" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="F16" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="G16" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="H16" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="I16" t="s">
-        <v>63</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -2380,28 +2498,28 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="C17" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D17" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="E17" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="F17" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="G17" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="H17" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="I17" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -2409,28 +2527,28 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="D18" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="E18" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="F18" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="G18" t="s">
-        <v>60</v>
+        <v>83</v>
       </c>
       <c r="H18" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="I18" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -2441,25 +2559,25 @@
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="D19" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="E19" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="F19" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="G19" t="s">
-        <v>60</v>
+        <v>83</v>
       </c>
       <c r="H19" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="I19" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -2470,25 +2588,25 @@
         <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="D20" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="E20" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="F20" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="G20" t="s">
-        <v>60</v>
+        <v>83</v>
       </c>
       <c r="H20" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="I20" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -2496,28 +2614,25 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="C21" t="s">
-        <v>57</v>
+        <v>20</v>
       </c>
       <c r="D21" t="s">
-        <v>30</v>
-      </c>
-      <c r="E21" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="F21" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="G21" t="s">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="H21" t="s">
-        <v>79</v>
+        <v>25</v>
       </c>
       <c r="I21" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -2525,28 +2640,28 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="D22" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="F22" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="G22" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="H22" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="I22" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -2554,28 +2669,28 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="D23" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="E23" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="F23" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="G23" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="H23" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="I23" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -2583,28 +2698,28 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>1</v>
+        <v>62</v>
       </c>
       <c r="C24" t="s">
-        <v>57</v>
+        <v>20</v>
       </c>
       <c r="D24" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="E24" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="F24" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="G24" t="s">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="H24" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="I24" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -2612,28 +2727,28 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C25" t="s">
-        <v>89</v>
+        <v>26</v>
       </c>
       <c r="D25" t="s">
-        <v>90</v>
+        <v>21</v>
       </c>
       <c r="E25" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="F25" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="G25" t="s">
-        <v>93</v>
+        <v>29</v>
       </c>
       <c r="H25" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="I25" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -2641,28 +2756,28 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>95</v>
+        <v>57</v>
       </c>
       <c r="D26" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="E26" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="F26" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="G26" t="s">
-        <v>97</v>
+        <v>59</v>
       </c>
       <c r="H26" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="I26" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -2670,28 +2785,28 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C27" t="s">
-        <v>95</v>
+        <v>20</v>
       </c>
       <c r="D27" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="E27" t="s">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="F27" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="G27" t="s">
-        <v>97</v>
+        <v>24</v>
       </c>
       <c r="H27" t="s">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="I27" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -2699,28 +2814,28 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>95</v>
+        <v>32</v>
       </c>
       <c r="D28" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="E28" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="F28" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="G28" t="s">
-        <v>97</v>
+        <v>34</v>
       </c>
       <c r="H28" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="I28" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
@@ -2728,28 +2843,28 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C29" t="s">
-        <v>95</v>
+        <v>32</v>
       </c>
       <c r="D29" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="E29" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="F29" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="G29" t="s">
-        <v>97</v>
+        <v>34</v>
       </c>
       <c r="H29" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="I29" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
@@ -2757,28 +2872,28 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C30" t="s">
-        <v>95</v>
+        <v>32</v>
       </c>
       <c r="D30" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="E30" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="F30" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="G30" t="s">
-        <v>97</v>
+        <v>34</v>
       </c>
       <c r="H30" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="I30" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
@@ -2789,25 +2904,25 @@
         <v>1</v>
       </c>
       <c r="C31" t="s">
-        <v>95</v>
+        <v>32</v>
       </c>
       <c r="D31" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="E31" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="F31" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="G31" t="s">
-        <v>97</v>
+        <v>34</v>
       </c>
       <c r="H31" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="I31" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
@@ -2815,28 +2930,28 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C32" t="s">
-        <v>95</v>
+        <v>32</v>
       </c>
       <c r="D32" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="E32" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="F32" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="G32" t="s">
-        <v>97</v>
+        <v>34</v>
       </c>
       <c r="H32" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="I32" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
@@ -2844,28 +2959,28 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C33" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="D33" t="s">
-        <v>30</v>
+        <v>123</v>
       </c>
       <c r="E33" t="s">
-        <v>117</v>
+        <v>27</v>
       </c>
       <c r="F33" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="G33" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="H33" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="I33" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
@@ -2873,28 +2988,28 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C34" t="s">
-        <v>116</v>
+        <v>80</v>
       </c>
       <c r="D34" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="E34" t="s">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="F34" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="G34" t="s">
-        <v>119</v>
+        <v>83</v>
       </c>
       <c r="H34" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="I34" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
@@ -2905,25 +3020,25 @@
         <v>14</v>
       </c>
       <c r="C35" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="D35" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="E35" t="s">
-        <v>91</v>
+        <v>27</v>
       </c>
       <c r="F35" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="G35" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="H35" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="I35" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
@@ -2934,25 +3049,25 @@
         <v>1</v>
       </c>
       <c r="C36" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="D36" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="E36" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="F36" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="G36" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="H36" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="I36" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
@@ -2960,28 +3075,28 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C37" t="s">
-        <v>134</v>
+        <v>32</v>
       </c>
       <c r="D37" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="E37" t="s">
-        <v>117</v>
+        <v>140</v>
       </c>
       <c r="F37" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="G37" t="s">
-        <v>136</v>
+        <v>34</v>
       </c>
       <c r="H37" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="I37" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
@@ -2989,25 +3104,28 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="C38" t="s">
-        <v>138</v>
+        <v>32</v>
       </c>
       <c r="D38" t="s">
-        <v>139</v>
+        <v>21</v>
+      </c>
+      <c r="E38" t="s">
+        <v>39</v>
       </c>
       <c r="F38" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="G38" t="s">
-        <v>141</v>
+        <v>34</v>
       </c>
       <c r="H38" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="I38" t="s">
-        <v>142</v>
+        <v>19</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
@@ -3018,22 +3136,25 @@
         <v>1</v>
       </c>
       <c r="C39" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D39" t="s">
-        <v>144</v>
+        <v>21</v>
+      </c>
+      <c r="E39" t="s">
+        <v>146</v>
       </c>
       <c r="F39" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="G39" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="H39" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="I39" t="s">
-        <v>147</v>
+        <v>19</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
@@ -3041,25 +3162,28 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C40" t="s">
-        <v>148</v>
+        <v>52</v>
       </c>
       <c r="D40" t="s">
-        <v>149</v>
+        <v>150</v>
+      </c>
+      <c r="E40" t="s">
+        <v>151</v>
       </c>
       <c r="F40" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="G40" t="s">
+        <v>55</v>
+      </c>
+      <c r="H40" t="s">
+        <v>153</v>
+      </c>
+      <c r="I40" t="s">
         <v>151</v>
-      </c>
-      <c r="H40" t="s">
-        <v>148</v>
-      </c>
-      <c r="I40" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
@@ -3067,25 +3191,25 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="C41" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D41" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F41" t="s">
+        <v>156</v>
+      </c>
+      <c r="G41" t="s">
+        <v>157</v>
+      </c>
+      <c r="H41" t="s">
         <v>154</v>
       </c>
-      <c r="G41" t="s">
-        <v>155</v>
-      </c>
-      <c r="H41" t="s">
-        <v>152</v>
-      </c>
       <c r="I41" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
@@ -3093,25 +3217,25 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C42" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D42" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="F42" t="s">
+        <v>161</v>
+      </c>
+      <c r="G42" t="s">
+        <v>162</v>
+      </c>
+      <c r="H42" t="s">
         <v>159</v>
       </c>
-      <c r="G42" t="s">
-        <v>160</v>
-      </c>
-      <c r="H42" t="s">
-        <v>157</v>
-      </c>
       <c r="I42" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
@@ -3119,25 +3243,25 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C43" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="D43" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="F43" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="G43" t="s">
+        <v>167</v>
+      </c>
+      <c r="H43" t="s">
         <v>164</v>
       </c>
-      <c r="H43" t="s">
-        <v>161</v>
-      </c>
       <c r="I43" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
@@ -3145,25 +3269,25 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C44" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="D44" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="F44" t="s">
+        <v>171</v>
+      </c>
+      <c r="G44" t="s">
+        <v>172</v>
+      </c>
+      <c r="H44" t="s">
+        <v>169</v>
+      </c>
+      <c r="I44" t="s">
         <v>168</v>
-      </c>
-      <c r="G44" t="s">
-        <v>169</v>
-      </c>
-      <c r="H44" t="s">
-        <v>166</v>
-      </c>
-      <c r="I44" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
@@ -3171,25 +3295,25 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C45" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D45" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="F45" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="G45" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
       <c r="H45" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="I45" t="s">
-        <v>156</v>
+        <v>177</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
@@ -3197,22 +3321,22 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="C46" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="D46" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="F46" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="G46" t="s">
-        <v>176</v>
-      </c>
-      <c r="I46" t="s">
-        <v>177</v>
+        <v>181</v>
+      </c>
+      <c r="H46" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
@@ -3220,25 +3344,25 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C47" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="D47" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="F47" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="G47" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="H47" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="I47" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
@@ -3246,25 +3370,25 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C48" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="D48" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="F48" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="G48" t="s">
+        <v>189</v>
+      </c>
+      <c r="H48" t="s">
         <v>186</v>
       </c>
-      <c r="H48" t="s">
-        <v>183</v>
-      </c>
       <c r="I48" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
@@ -3275,22 +3399,22 @@
         <v>1</v>
       </c>
       <c r="C49" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D49" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="F49" t="s">
+        <v>192</v>
+      </c>
+      <c r="G49" t="s">
+        <v>193</v>
+      </c>
+      <c r="H49" t="s">
         <v>190</v>
       </c>
-      <c r="G49" t="s">
-        <v>191</v>
-      </c>
-      <c r="H49" t="s">
-        <v>188</v>
-      </c>
       <c r="I49" t="s">
-        <v>156</v>
+        <v>177</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
@@ -3298,25 +3422,25 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C50" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D50" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="F50" t="s">
+        <v>196</v>
+      </c>
+      <c r="G50" t="s">
+        <v>197</v>
+      </c>
+      <c r="H50" t="s">
         <v>194</v>
       </c>
-      <c r="G50" t="s">
-        <v>195</v>
-      </c>
-      <c r="H50" t="s">
-        <v>192</v>
-      </c>
       <c r="I50" t="s">
-        <v>156</v>
+        <v>198</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
@@ -3327,22 +3451,22 @@
         <v>1</v>
       </c>
       <c r="C51" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="D51" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="F51" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="G51" t="s">
-        <v>151</v>
+        <v>202</v>
       </c>
       <c r="H51" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="I51" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
@@ -3353,22 +3477,22 @@
         <v>1</v>
       </c>
       <c r="C52" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="D52" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="F52" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="G52" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="H52" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="I52" t="s">
-        <v>203</v>
+        <v>177</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
@@ -3376,25 +3500,25 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C53" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="D53" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="F53" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="G53" t="s">
+        <v>172</v>
+      </c>
+      <c r="H53" t="s">
         <v>207</v>
       </c>
-      <c r="H53" t="s">
-        <v>204</v>
-      </c>
       <c r="I53" t="s">
-        <v>147</v>
+        <v>177</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
@@ -3405,22 +3529,22 @@
         <v>1</v>
       </c>
       <c r="C54" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D54" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="F54" t="s">
+        <v>212</v>
+      </c>
+      <c r="G54" t="s">
+        <v>213</v>
+      </c>
+      <c r="H54" t="s">
         <v>210</v>
       </c>
-      <c r="G54" t="s">
-        <v>211</v>
-      </c>
-      <c r="H54" t="s">
-        <v>208</v>
-      </c>
       <c r="I54" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
@@ -3428,25 +3552,25 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C55" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D55" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="F55" t="s">
+        <v>217</v>
+      </c>
+      <c r="G55" t="s">
+        <v>218</v>
+      </c>
+      <c r="H55" t="s">
         <v>215</v>
       </c>
-      <c r="G55" t="s">
-        <v>216</v>
-      </c>
-      <c r="H55" t="s">
-        <v>213</v>
-      </c>
       <c r="I55" t="s">
-        <v>217</v>
+        <v>168</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
@@ -3457,22 +3581,22 @@
         <v>1</v>
       </c>
       <c r="C56" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D56" t="s">
+        <v>220</v>
+      </c>
+      <c r="F56" t="s">
+        <v>221</v>
+      </c>
+      <c r="G56" t="s">
+        <v>222</v>
+      </c>
+      <c r="H56" t="s">
         <v>219</v>
       </c>
-      <c r="F56" t="s">
-        <v>220</v>
-      </c>
-      <c r="G56" t="s">
-        <v>211</v>
-      </c>
-      <c r="H56" t="s">
-        <v>218</v>
-      </c>
       <c r="I56" t="s">
-        <v>147</v>
+        <v>223</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
@@ -3483,22 +3607,22 @@
         <v>1</v>
       </c>
       <c r="C57" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="D57" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="F57" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="G57" t="s">
+        <v>227</v>
+      </c>
+      <c r="H57" t="s">
         <v>224</v>
       </c>
-      <c r="H57" t="s">
-        <v>221</v>
-      </c>
       <c r="I57" t="s">
-        <v>225</v>
+        <v>168</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
@@ -3509,22 +3633,22 @@
         <v>1</v>
       </c>
       <c r="C58" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D58" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="F58" t="s">
+        <v>230</v>
+      </c>
+      <c r="G58" t="s">
+        <v>231</v>
+      </c>
+      <c r="H58" t="s">
         <v>228</v>
       </c>
-      <c r="G58" t="s">
-        <v>229</v>
-      </c>
-      <c r="H58" t="s">
-        <v>226</v>
-      </c>
       <c r="I58" t="s">
-        <v>156</v>
+        <v>232</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
@@ -3532,25 +3656,25 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C59" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="D59" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="F59" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="G59" t="s">
+        <v>236</v>
+      </c>
+      <c r="H59" t="s">
         <v>233</v>
       </c>
-      <c r="H59" t="s">
-        <v>230</v>
-      </c>
       <c r="I59" t="s">
-        <v>165</v>
+        <v>237</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
@@ -3561,22 +3685,22 @@
         <v>2</v>
       </c>
       <c r="C60" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="D60" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="F60" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="G60" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="H60" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="I60" t="s">
-        <v>165</v>
+        <v>242</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
@@ -3584,25 +3708,25 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C61" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="D61" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="F61" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="G61" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="H61" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="I61" t="s">
-        <v>156</v>
+        <v>198</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
@@ -3613,22 +3737,22 @@
         <v>2</v>
       </c>
       <c r="C62" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="D62" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="F62" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="G62" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="H62" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="I62" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
@@ -3636,25 +3760,25 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C63" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="D63" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="F63" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="G63" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="H63" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="I63" t="s">
-        <v>251</v>
+        <v>177</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
@@ -3665,22 +3789,22 @@
         <v>1</v>
       </c>
       <c r="C64" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="D64" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="F64" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="G64" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="H64" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="I64" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
@@ -3691,22 +3815,22 @@
         <v>1</v>
       </c>
       <c r="C65" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="D65" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="F65" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="G65" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="H65" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="I65" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
@@ -3714,25 +3838,25 @@
         <v>65</v>
       </c>
       <c r="B66">
-        <v>46</v>
+        <v>2</v>
       </c>
       <c r="C66" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="D66" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="F66" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="G66" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="H66" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="I66" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
@@ -3740,25 +3864,25 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C67" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="D67" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="F67" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="G67" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="H67" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="I67" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
@@ -3766,25 +3890,25 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C68" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="D68" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="F68" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="G68" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="H68" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="I68" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
@@ -3792,25 +3916,25 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C69" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="D69" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="F69" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="G69" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="H69" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="I69" t="s">
-        <v>270</v>
+        <v>285</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
@@ -3818,19 +3942,25 @@
         <v>69</v>
       </c>
       <c r="B70">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="C70" t="s">
-        <v>280</v>
-      </c>
-      <c r="E70">
-        <v>973028</v>
+        <v>286</v>
+      </c>
+      <c r="D70" t="s">
+        <v>287</v>
       </c>
       <c r="F70" t="s">
-        <v>281</v>
+        <v>288</v>
+      </c>
+      <c r="G70" t="s">
+        <v>286</v>
+      </c>
+      <c r="H70" t="s">
+        <v>289</v>
       </c>
       <c r="I70" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
@@ -3838,19 +3968,25 @@
         <v>70</v>
       </c>
       <c r="B71">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="C71" t="s">
-        <v>283</v>
-      </c>
-      <c r="E71" t="s">
-        <v>284</v>
+        <v>291</v>
+      </c>
+      <c r="D71" t="s">
+        <v>287</v>
       </c>
       <c r="F71" t="s">
-        <v>285</v>
+        <v>292</v>
+      </c>
+      <c r="G71" t="s">
+        <v>291</v>
+      </c>
+      <c r="H71" t="s">
+        <v>293</v>
       </c>
       <c r="I71" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
@@ -3861,25 +3997,22 @@
         <v>10</v>
       </c>
       <c r="C72" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="D72" t="s">
-        <v>288</v>
-      </c>
-      <c r="E72" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="F72" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="G72" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="H72" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="I72" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
@@ -3887,28 +4020,28 @@
         <v>72</v>
       </c>
       <c r="B73">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="C73" t="s">
+        <v>291</v>
+      </c>
+      <c r="D73" t="s">
+        <v>287</v>
+      </c>
+      <c r="E73" t="s">
+        <v>105</v>
+      </c>
+      <c r="F73" t="s">
+        <v>300</v>
+      </c>
+      <c r="G73" t="s">
+        <v>291</v>
+      </c>
+      <c r="H73" t="s">
+        <v>105</v>
+      </c>
+      <c r="I73" t="s">
         <v>294</v>
-      </c>
-      <c r="D73" t="s">
-        <v>295</v>
-      </c>
-      <c r="E73" t="s">
-        <v>296</v>
-      </c>
-      <c r="F73" t="s">
-        <v>297</v>
-      </c>
-      <c r="G73" t="s">
-        <v>298</v>
-      </c>
-      <c r="H73" t="s">
-        <v>299</v>
-      </c>
-      <c r="I73" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
@@ -3916,28 +4049,25 @@
         <v>73</v>
       </c>
       <c r="B74">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="C74" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D74" t="s">
-        <v>288</v>
-      </c>
-      <c r="E74" t="s">
+        <v>302</v>
+      </c>
+      <c r="F74" t="s">
+        <v>303</v>
+      </c>
+      <c r="G74" t="s">
         <v>301</v>
       </c>
-      <c r="F74" t="s">
-        <v>302</v>
-      </c>
-      <c r="G74" t="s">
-        <v>291</v>
-      </c>
       <c r="H74" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="I74" t="s">
-        <v>293</v>
+        <v>305</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
@@ -3945,28 +4075,25 @@
         <v>74</v>
       </c>
       <c r="B75">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C75" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="D75" t="s">
-        <v>305</v>
-      </c>
-      <c r="E75" t="s">
+        <v>307</v>
+      </c>
+      <c r="F75" t="s">
+        <v>308</v>
+      </c>
+      <c r="G75" t="s">
         <v>306</v>
-      </c>
-      <c r="F75" t="s">
-        <v>307</v>
-      </c>
-      <c r="G75" t="s">
-        <v>308</v>
       </c>
       <c r="H75" t="s">
         <v>309</v>
       </c>
       <c r="I75" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
@@ -3974,7 +4101,7 @@
         <v>75</v>
       </c>
       <c r="B76">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C76" t="s">
         <v>310</v>
@@ -3982,20 +4109,17 @@
       <c r="D76" t="s">
         <v>311</v>
       </c>
-      <c r="E76" t="s">
+      <c r="F76" t="s">
         <v>312</v>
       </c>
-      <c r="F76" t="s">
+      <c r="G76" t="s">
+        <v>310</v>
+      </c>
+      <c r="H76" t="s">
         <v>313</v>
       </c>
-      <c r="G76" t="s">
+      <c r="I76" t="s">
         <v>314</v>
-      </c>
-      <c r="H76" t="s">
-        <v>315</v>
-      </c>
-      <c r="I76" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
@@ -4003,28 +4127,19 @@
         <v>76</v>
       </c>
       <c r="B77">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C77" t="s">
+        <v>315</v>
+      </c>
+      <c r="E77">
+        <v>973028</v>
+      </c>
+      <c r="F77" t="s">
+        <v>316</v>
+      </c>
+      <c r="I77" t="s">
         <v>317</v>
-      </c>
-      <c r="D77" t="s">
-        <v>318</v>
-      </c>
-      <c r="E77" t="s">
-        <v>312</v>
-      </c>
-      <c r="F77" t="s">
-        <v>319</v>
-      </c>
-      <c r="G77" t="s">
-        <v>320</v>
-      </c>
-      <c r="H77" t="s">
-        <v>321</v>
-      </c>
-      <c r="I77" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
@@ -4032,28 +4147,28 @@
         <v>77</v>
       </c>
       <c r="B78">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C78" t="s">
+        <v>318</v>
+      </c>
+      <c r="D78" t="s">
+        <v>319</v>
+      </c>
+      <c r="E78" t="s">
+        <v>320</v>
+      </c>
+      <c r="F78" t="s">
+        <v>321</v>
+      </c>
+      <c r="G78" t="s">
         <v>322</v>
       </c>
-      <c r="D78" t="s">
+      <c r="H78" t="s">
         <v>323</v>
       </c>
-      <c r="E78" t="s">
+      <c r="I78" t="s">
         <v>324</v>
-      </c>
-      <c r="F78" t="s">
-        <v>325</v>
-      </c>
-      <c r="G78" t="s">
-        <v>326</v>
-      </c>
-      <c r="H78" t="s">
-        <v>327</v>
-      </c>
-      <c r="I78" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
@@ -4061,25 +4176,28 @@
         <v>78</v>
       </c>
       <c r="B79">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="C79" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="D79" t="s">
-        <v>330</v>
+        <v>319</v>
+      </c>
+      <c r="E79" t="s">
+        <v>326</v>
       </c>
       <c r="F79" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="G79" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="H79" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="I79" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
@@ -4087,25 +4205,28 @@
         <v>79</v>
       </c>
       <c r="B80">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="C80" t="s">
+        <v>329</v>
+      </c>
+      <c r="D80" t="s">
+        <v>330</v>
+      </c>
+      <c r="E80" t="s">
+        <v>331</v>
+      </c>
+      <c r="F80" t="s">
         <v>332</v>
       </c>
-      <c r="D80" t="s">
-        <v>335</v>
-      </c>
-      <c r="F80" t="s">
-        <v>336</v>
-      </c>
       <c r="G80" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H80" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="I80" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
@@ -4113,25 +4234,28 @@
         <v>80</v>
       </c>
       <c r="B81">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C81" t="s">
+        <v>335</v>
+      </c>
+      <c r="D81" t="s">
+        <v>336</v>
+      </c>
+      <c r="E81" t="s">
+        <v>337</v>
+      </c>
+      <c r="F81" t="s">
         <v>338</v>
       </c>
-      <c r="D81" t="s">
+      <c r="G81" t="s">
         <v>339</v>
       </c>
-      <c r="F81" t="s">
+      <c r="H81" t="s">
         <v>340</v>
       </c>
-      <c r="G81" t="s">
+      <c r="I81" t="s">
         <v>341</v>
-      </c>
-      <c r="H81" t="s">
-        <v>342</v>
-      </c>
-      <c r="I81" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
@@ -4139,25 +4263,28 @@
         <v>81</v>
       </c>
       <c r="B82">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C82" t="s">
+        <v>342</v>
+      </c>
+      <c r="D82" t="s">
+        <v>343</v>
+      </c>
+      <c r="E82" t="s">
         <v>344</v>
       </c>
-      <c r="D82" t="s">
+      <c r="F82" t="s">
         <v>345</v>
       </c>
-      <c r="F82" t="s">
+      <c r="G82" t="s">
         <v>346</v>
       </c>
-      <c r="G82" t="s">
+      <c r="H82" t="s">
         <v>347</v>
       </c>
-      <c r="H82" t="s">
-        <v>348</v>
-      </c>
       <c r="I82" t="s">
-        <v>343</v>
+        <v>324</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
@@ -4165,28 +4292,28 @@
         <v>82</v>
       </c>
       <c r="B83">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C83" t="s">
+        <v>348</v>
+      </c>
+      <c r="D83" t="s">
+        <v>330</v>
+      </c>
+      <c r="E83" t="s">
         <v>349</v>
       </c>
-      <c r="D83" t="s">
+      <c r="F83" t="s">
         <v>350</v>
       </c>
-      <c r="E83" t="s">
+      <c r="G83" t="s">
+        <v>333</v>
+      </c>
+      <c r="H83" t="s">
         <v>351</v>
       </c>
-      <c r="F83" t="s">
-        <v>352</v>
-      </c>
-      <c r="G83" t="s">
-        <v>353</v>
-      </c>
-      <c r="H83" t="s">
-        <v>354</v>
-      </c>
       <c r="I83" t="s">
-        <v>355</v>
+        <v>324</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
@@ -4197,25 +4324,25 @@
         <v>1</v>
       </c>
       <c r="C84" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D84" t="s">
-        <v>357</v>
+        <v>319</v>
       </c>
       <c r="E84" t="s">
-        <v>358</v>
+        <v>326</v>
       </c>
       <c r="F84" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="G84" t="s">
-        <v>360</v>
+        <v>346</v>
       </c>
       <c r="H84" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="I84" t="s">
-        <v>362</v>
+        <v>324</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
@@ -4226,22 +4353,25 @@
         <v>1</v>
       </c>
       <c r="C85" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="D85" t="s">
-        <v>364</v>
+        <v>356</v>
+      </c>
+      <c r="E85" t="s">
+        <v>357</v>
       </c>
       <c r="F85" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="G85" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="H85" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="I85" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
@@ -4249,28 +4379,28 @@
         <v>85</v>
       </c>
       <c r="B86">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C86" t="s">
+        <v>362</v>
+      </c>
+      <c r="D86" t="s">
+        <v>363</v>
+      </c>
+      <c r="E86" t="s">
+        <v>364</v>
+      </c>
+      <c r="F86" t="s">
+        <v>365</v>
+      </c>
+      <c r="G86" t="s">
+        <v>366</v>
+      </c>
+      <c r="H86" t="s">
+        <v>367</v>
+      </c>
+      <c r="I86" t="s">
         <v>368</v>
-      </c>
-      <c r="D86" t="s">
-        <v>369</v>
-      </c>
-      <c r="E86" t="s">
-        <v>370</v>
-      </c>
-      <c r="F86" t="s">
-        <v>371</v>
-      </c>
-      <c r="G86" t="s">
-        <v>372</v>
-      </c>
-      <c r="H86" t="s">
-        <v>373</v>
-      </c>
-      <c r="I86" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
@@ -4278,25 +4408,25 @@
         <v>86</v>
       </c>
       <c r="B87">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="C87" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="D87" t="s">
-        <v>376</v>
-      </c>
-      <c r="E87" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="F87" t="s">
-        <v>378</v>
+        <v>371</v>
+      </c>
+      <c r="G87" t="s">
+        <v>372</v>
       </c>
       <c r="H87" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="I87" t="s">
-        <v>28</v>
+        <v>374</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
@@ -4304,25 +4434,25 @@
         <v>87</v>
       </c>
       <c r="B88">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="C88" t="s">
+        <v>372</v>
+      </c>
+      <c r="D88" t="s">
         <v>375</v>
       </c>
-      <c r="D88" t="s">
-        <v>380</v>
-      </c>
-      <c r="E88">
-        <v>0</v>
-      </c>
       <c r="F88" t="s">
-        <v>381</v>
+        <v>376</v>
+      </c>
+      <c r="G88" t="s">
+        <v>372</v>
       </c>
       <c r="H88" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="I88" t="s">
-        <v>28</v>
+        <v>374</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
@@ -4330,25 +4460,25 @@
         <v>88</v>
       </c>
       <c r="B89">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C89" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="D89" t="s">
-        <v>376</v>
-      </c>
-      <c r="E89">
-        <v>1</v>
+        <v>379</v>
       </c>
       <c r="F89" t="s">
+        <v>380</v>
+      </c>
+      <c r="G89" t="s">
+        <v>381</v>
+      </c>
+      <c r="H89" t="s">
+        <v>382</v>
+      </c>
+      <c r="I89" t="s">
         <v>383</v>
-      </c>
-      <c r="H89" t="s">
-        <v>384</v>
-      </c>
-      <c r="I89" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
@@ -4356,25 +4486,28 @@
         <v>89</v>
       </c>
       <c r="B90">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="C90" t="s">
-        <v>375</v>
+        <v>384</v>
       </c>
       <c r="D90" t="s">
-        <v>376</v>
+        <v>385</v>
       </c>
       <c r="E90" t="s">
-        <v>385</v>
+        <v>105</v>
       </c>
       <c r="F90" t="s">
         <v>386</v>
       </c>
+      <c r="G90" t="s">
+        <v>387</v>
+      </c>
       <c r="H90" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="I90" t="s">
-        <v>28</v>
+        <v>389</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
@@ -4382,25 +4515,28 @@
         <v>90</v>
       </c>
       <c r="B91">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="C91" t="s">
-        <v>375</v>
+        <v>390</v>
       </c>
       <c r="D91" t="s">
-        <v>376</v>
+        <v>391</v>
       </c>
       <c r="E91" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="F91" t="s">
-        <v>389</v>
+        <v>393</v>
+      </c>
+      <c r="G91" t="s">
+        <v>394</v>
       </c>
       <c r="H91" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="I91" t="s">
-        <v>28</v>
+        <v>396</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
@@ -4408,25 +4544,25 @@
         <v>91</v>
       </c>
       <c r="B92">
-        <v>52</v>
+        <v>1</v>
       </c>
       <c r="C92" t="s">
-        <v>375</v>
+        <v>397</v>
       </c>
       <c r="D92" t="s">
-        <v>376</v>
-      </c>
-      <c r="E92">
-        <v>200</v>
+        <v>398</v>
       </c>
       <c r="F92" t="s">
-        <v>391</v>
+        <v>399</v>
+      </c>
+      <c r="G92" t="s">
+        <v>397</v>
       </c>
       <c r="H92" t="s">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="I92" t="s">
-        <v>28</v>
+        <v>401</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
@@ -4437,22 +4573,25 @@
         <v>1</v>
       </c>
       <c r="C93" t="s">
-        <v>375</v>
+        <v>402</v>
       </c>
       <c r="D93" t="s">
-        <v>376</v>
-      </c>
-      <c r="E93">
-        <v>430</v>
+        <v>403</v>
+      </c>
+      <c r="E93" t="s">
+        <v>404</v>
       </c>
       <c r="F93" t="s">
-        <v>393</v>
+        <v>405</v>
+      </c>
+      <c r="G93" t="s">
+        <v>406</v>
       </c>
       <c r="H93" t="s">
-        <v>394</v>
+        <v>407</v>
       </c>
       <c r="I93" t="s">
-        <v>28</v>
+        <v>408</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
@@ -4460,25 +4599,25 @@
         <v>93</v>
       </c>
       <c r="B94">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="C94" t="s">
-        <v>375</v>
+        <v>409</v>
       </c>
       <c r="D94" t="s">
-        <v>395</v>
+        <v>410</v>
       </c>
       <c r="E94" t="s">
-        <v>63</v>
+        <v>411</v>
       </c>
       <c r="F94" t="s">
-        <v>396</v>
+        <v>412</v>
       </c>
       <c r="H94" t="s">
-        <v>397</v>
+        <v>413</v>
       </c>
       <c r="I94" t="s">
-        <v>63</v>
+        <v>19</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
@@ -4486,25 +4625,25 @@
         <v>94</v>
       </c>
       <c r="B95">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="C95" t="s">
-        <v>375</v>
+        <v>409</v>
       </c>
       <c r="D95" t="s">
-        <v>376</v>
+        <v>414</v>
       </c>
       <c r="E95">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F95" t="s">
-        <v>398</v>
+        <v>415</v>
       </c>
       <c r="H95" t="s">
-        <v>399</v>
+        <v>416</v>
       </c>
       <c r="I95" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
@@ -4512,25 +4651,25 @@
         <v>95</v>
       </c>
       <c r="B96">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C96" t="s">
-        <v>375</v>
+        <v>409</v>
       </c>
       <c r="D96" t="s">
-        <v>376</v>
-      </c>
-      <c r="E96" t="s">
-        <v>400</v>
+        <v>410</v>
+      </c>
+      <c r="E96">
+        <v>1</v>
       </c>
       <c r="F96" t="s">
-        <v>401</v>
+        <v>417</v>
       </c>
       <c r="H96" t="s">
-        <v>402</v>
+        <v>418</v>
       </c>
       <c r="I96" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
@@ -4538,25 +4677,25 @@
         <v>96</v>
       </c>
       <c r="B97">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C97" t="s">
-        <v>375</v>
+        <v>409</v>
       </c>
       <c r="D97" t="s">
-        <v>376</v>
+        <v>410</v>
       </c>
       <c r="E97">
-        <v>330</v>
+        <v>22</v>
       </c>
       <c r="F97" t="s">
-        <v>403</v>
+        <v>419</v>
       </c>
       <c r="H97" t="s">
-        <v>404</v>
+        <v>420</v>
       </c>
       <c r="I97" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
@@ -4564,25 +4703,25 @@
         <v>97</v>
       </c>
       <c r="B98">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C98" t="s">
-        <v>375</v>
+        <v>409</v>
       </c>
       <c r="D98" t="s">
-        <v>376</v>
+        <v>410</v>
       </c>
       <c r="E98" t="s">
-        <v>405</v>
+        <v>421</v>
       </c>
       <c r="F98" t="s">
-        <v>406</v>
+        <v>422</v>
       </c>
       <c r="H98" t="s">
-        <v>407</v>
+        <v>423</v>
       </c>
       <c r="I98" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
@@ -4590,25 +4729,25 @@
         <v>98</v>
       </c>
       <c r="B99">
-        <v>1</v>
+        <v>54</v>
       </c>
       <c r="C99" t="s">
-        <v>375</v>
+        <v>409</v>
       </c>
       <c r="D99" t="s">
-        <v>376</v>
-      </c>
-      <c r="E99" t="s">
-        <v>408</v>
+        <v>410</v>
+      </c>
+      <c r="E99">
+        <v>200</v>
       </c>
       <c r="F99" t="s">
-        <v>409</v>
+        <v>424</v>
       </c>
       <c r="H99" t="s">
-        <v>410</v>
+        <v>425</v>
       </c>
       <c r="I99" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
@@ -4616,25 +4755,25 @@
         <v>99</v>
       </c>
       <c r="B100">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C100" t="s">
-        <v>375</v>
+        <v>409</v>
       </c>
       <c r="D100" t="s">
-        <v>376</v>
+        <v>414</v>
       </c>
       <c r="E100" t="s">
-        <v>411</v>
+        <v>105</v>
       </c>
       <c r="F100" t="s">
-        <v>412</v>
+        <v>426</v>
       </c>
       <c r="H100" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="I100" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
@@ -4645,22 +4784,22 @@
         <v>5</v>
       </c>
       <c r="C101" t="s">
-        <v>375</v>
+        <v>409</v>
       </c>
       <c r="D101" t="s">
-        <v>376</v>
+        <v>410</v>
       </c>
       <c r="E101" t="s">
-        <v>414</v>
+        <v>427</v>
       </c>
       <c r="F101" t="s">
-        <v>415</v>
+        <v>428</v>
       </c>
       <c r="H101" t="s">
-        <v>416</v>
+        <v>429</v>
       </c>
       <c r="I101" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
@@ -4668,25 +4807,25 @@
         <v>101</v>
       </c>
       <c r="B102">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C102" t="s">
-        <v>375</v>
+        <v>409</v>
       </c>
       <c r="D102" t="s">
-        <v>376</v>
+        <v>410</v>
       </c>
       <c r="E102" t="s">
-        <v>417</v>
+        <v>430</v>
       </c>
       <c r="F102" t="s">
-        <v>418</v>
+        <v>431</v>
       </c>
       <c r="H102" t="s">
-        <v>419</v>
+        <v>432</v>
       </c>
       <c r="I102" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
@@ -4694,25 +4833,25 @@
         <v>102</v>
       </c>
       <c r="B103">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C103" t="s">
-        <v>375</v>
+        <v>409</v>
       </c>
       <c r="D103" t="s">
-        <v>376</v>
-      </c>
-      <c r="E103" t="s">
-        <v>420</v>
+        <v>410</v>
+      </c>
+      <c r="E103">
+        <v>100</v>
       </c>
       <c r="F103" t="s">
-        <v>421</v>
+        <v>433</v>
       </c>
       <c r="H103" t="s">
-        <v>422</v>
+        <v>434</v>
       </c>
       <c r="I103" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
@@ -4720,25 +4859,25 @@
         <v>103</v>
       </c>
       <c r="B104">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C104" t="s">
-        <v>375</v>
+        <v>409</v>
       </c>
       <c r="D104" t="s">
-        <v>376</v>
+        <v>410</v>
       </c>
       <c r="E104" t="s">
-        <v>423</v>
+        <v>435</v>
       </c>
       <c r="F104" t="s">
-        <v>424</v>
+        <v>436</v>
       </c>
       <c r="H104" t="s">
-        <v>425</v>
+        <v>437</v>
       </c>
       <c r="I104" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
@@ -4746,25 +4885,25 @@
         <v>104</v>
       </c>
       <c r="B105">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C105" t="s">
-        <v>375</v>
+        <v>409</v>
       </c>
       <c r="D105" t="s">
-        <v>376</v>
-      </c>
-      <c r="E105" t="s">
-        <v>426</v>
+        <v>410</v>
+      </c>
+      <c r="E105">
+        <v>330</v>
       </c>
       <c r="F105" t="s">
-        <v>427</v>
+        <v>438</v>
       </c>
       <c r="H105" t="s">
-        <v>428</v>
+        <v>439</v>
       </c>
       <c r="I105" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
@@ -4772,25 +4911,25 @@
         <v>105</v>
       </c>
       <c r="B106">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C106" t="s">
-        <v>375</v>
+        <v>409</v>
       </c>
       <c r="D106" t="s">
-        <v>376</v>
+        <v>410</v>
       </c>
       <c r="E106" t="s">
-        <v>429</v>
+        <v>440</v>
       </c>
       <c r="F106" t="s">
-        <v>430</v>
+        <v>441</v>
       </c>
       <c r="H106" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="I106" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
@@ -4798,25 +4937,25 @@
         <v>106</v>
       </c>
       <c r="B107">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C107" t="s">
-        <v>375</v>
+        <v>409</v>
       </c>
       <c r="D107" t="s">
-        <v>376</v>
+        <v>410</v>
       </c>
       <c r="E107" t="s">
-        <v>432</v>
+        <v>443</v>
       </c>
       <c r="F107" t="s">
-        <v>433</v>
+        <v>444</v>
       </c>
       <c r="H107" t="s">
-        <v>434</v>
+        <v>445</v>
       </c>
       <c r="I107" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
@@ -4827,22 +4966,22 @@
         <v>2</v>
       </c>
       <c r="C108" t="s">
-        <v>435</v>
+        <v>409</v>
       </c>
       <c r="D108" t="s">
-        <v>436</v>
+        <v>410</v>
       </c>
       <c r="E108" t="s">
-        <v>437</v>
+        <v>446</v>
       </c>
       <c r="F108" t="s">
-        <v>438</v>
+        <v>447</v>
       </c>
       <c r="H108" t="s">
-        <v>439</v>
+        <v>448</v>
       </c>
       <c r="I108" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
@@ -4850,25 +4989,25 @@
         <v>108</v>
       </c>
       <c r="B109">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C109" t="s">
-        <v>440</v>
+        <v>409</v>
       </c>
       <c r="D109" t="s">
-        <v>441</v>
+        <v>410</v>
       </c>
       <c r="E109" t="s">
-        <v>442</v>
+        <v>449</v>
       </c>
       <c r="F109" t="s">
-        <v>443</v>
+        <v>450</v>
       </c>
       <c r="H109" t="s">
-        <v>444</v>
+        <v>451</v>
       </c>
       <c r="I109" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
@@ -4876,25 +5015,25 @@
         <v>109</v>
       </c>
       <c r="B110">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C110" t="s">
-        <v>440</v>
+        <v>409</v>
       </c>
       <c r="D110" t="s">
-        <v>441</v>
+        <v>410</v>
       </c>
       <c r="E110" t="s">
-        <v>445</v>
+        <v>452</v>
       </c>
       <c r="F110" t="s">
-        <v>446</v>
+        <v>453</v>
       </c>
       <c r="H110" t="s">
-        <v>447</v>
+        <v>454</v>
       </c>
       <c r="I110" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
@@ -4902,25 +5041,25 @@
         <v>110</v>
       </c>
       <c r="B111">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C111" t="s">
-        <v>440</v>
+        <v>409</v>
       </c>
       <c r="D111" t="s">
-        <v>441</v>
+        <v>410</v>
       </c>
       <c r="E111" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
       <c r="F111" t="s">
-        <v>449</v>
+        <v>456</v>
       </c>
       <c r="H111" t="s">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="I111" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
@@ -4928,25 +5067,25 @@
         <v>111</v>
       </c>
       <c r="B112">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C112" t="s">
-        <v>440</v>
+        <v>458</v>
       </c>
       <c r="D112" t="s">
-        <v>441</v>
+        <v>459</v>
       </c>
       <c r="E112" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
       <c r="F112" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
       <c r="H112" t="s">
-        <v>453</v>
+        <v>462</v>
       </c>
       <c r="I112" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
@@ -4954,25 +5093,25 @@
         <v>112</v>
       </c>
       <c r="B113">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C113" t="s">
-        <v>440</v>
+        <v>463</v>
       </c>
       <c r="D113" t="s">
-        <v>441</v>
+        <v>464</v>
       </c>
       <c r="E113" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
       <c r="F113" t="s">
-        <v>455</v>
+        <v>466</v>
       </c>
       <c r="H113" t="s">
-        <v>456</v>
+        <v>467</v>
       </c>
       <c r="I113" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
@@ -4983,22 +5122,22 @@
         <v>1</v>
       </c>
       <c r="C114" t="s">
-        <v>440</v>
+        <v>463</v>
       </c>
       <c r="D114" t="s">
-        <v>441</v>
+        <v>464</v>
       </c>
       <c r="E114" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
       <c r="F114" t="s">
-        <v>458</v>
+        <v>469</v>
       </c>
       <c r="H114" t="s">
-        <v>459</v>
+        <v>470</v>
       </c>
       <c r="I114" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
@@ -5009,22 +5148,22 @@
         <v>1</v>
       </c>
       <c r="C115" t="s">
-        <v>440</v>
+        <v>463</v>
       </c>
       <c r="D115" t="s">
-        <v>441</v>
+        <v>464</v>
       </c>
       <c r="E115" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
       <c r="F115" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
       <c r="H115" t="s">
-        <v>462</v>
+        <v>473</v>
       </c>
       <c r="I115" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
@@ -5032,25 +5171,25 @@
         <v>115</v>
       </c>
       <c r="B116">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C116" t="s">
-        <v>440</v>
+        <v>463</v>
       </c>
       <c r="D116" t="s">
-        <v>441</v>
+        <v>464</v>
       </c>
       <c r="E116" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
       <c r="F116" t="s">
-        <v>464</v>
+        <v>475</v>
       </c>
       <c r="H116" t="s">
-        <v>465</v>
+        <v>476</v>
       </c>
       <c r="I116" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
@@ -5061,22 +5200,22 @@
         <v>1</v>
       </c>
       <c r="C117" t="s">
-        <v>440</v>
+        <v>463</v>
       </c>
       <c r="D117" t="s">
-        <v>441</v>
+        <v>464</v>
       </c>
       <c r="E117" t="s">
-        <v>466</v>
+        <v>477</v>
       </c>
       <c r="F117" t="s">
-        <v>467</v>
+        <v>478</v>
       </c>
       <c r="H117" t="s">
-        <v>468</v>
+        <v>479</v>
       </c>
       <c r="I117" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
@@ -5084,25 +5223,25 @@
         <v>117</v>
       </c>
       <c r="B118">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C118" t="s">
-        <v>440</v>
+        <v>463</v>
       </c>
       <c r="D118" t="s">
-        <v>441</v>
+        <v>464</v>
       </c>
       <c r="E118" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
       <c r="F118" t="s">
-        <v>470</v>
+        <v>481</v>
       </c>
       <c r="H118" t="s">
-        <v>471</v>
+        <v>482</v>
       </c>
       <c r="I118" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
@@ -5110,25 +5249,25 @@
         <v>118</v>
       </c>
       <c r="B119">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C119" t="s">
-        <v>440</v>
+        <v>483</v>
       </c>
       <c r="D119" t="s">
-        <v>441</v>
-      </c>
-      <c r="E119" t="s">
-        <v>472</v>
+        <v>484</v>
+      </c>
+      <c r="E119">
+        <v>0</v>
       </c>
       <c r="F119" t="s">
-        <v>473</v>
+        <v>485</v>
       </c>
       <c r="H119" t="s">
-        <v>474</v>
+        <v>486</v>
       </c>
       <c r="I119" t="s">
-        <v>28</v>
+        <v>487</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
@@ -5139,22 +5278,22 @@
         <v>1</v>
       </c>
       <c r="C120" t="s">
-        <v>440</v>
+        <v>409</v>
       </c>
       <c r="D120" t="s">
-        <v>441</v>
-      </c>
-      <c r="E120" t="s">
-        <v>475</v>
+        <v>410</v>
+      </c>
+      <c r="E120">
+        <v>51</v>
       </c>
       <c r="F120" t="s">
-        <v>476</v>
+        <v>488</v>
       </c>
       <c r="H120" t="s">
-        <v>477</v>
+        <v>489</v>
       </c>
       <c r="I120" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
@@ -5162,25 +5301,25 @@
         <v>120</v>
       </c>
       <c r="B121">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C121" t="s">
-        <v>440</v>
+        <v>463</v>
       </c>
       <c r="D121" t="s">
-        <v>441</v>
+        <v>464</v>
       </c>
       <c r="E121" t="s">
-        <v>478</v>
+        <v>490</v>
       </c>
       <c r="F121" t="s">
-        <v>479</v>
+        <v>491</v>
       </c>
       <c r="H121" t="s">
-        <v>480</v>
+        <v>492</v>
       </c>
       <c r="I121" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
@@ -5191,22 +5330,22 @@
         <v>1</v>
       </c>
       <c r="C122" t="s">
-        <v>440</v>
+        <v>463</v>
       </c>
       <c r="D122" t="s">
-        <v>441</v>
+        <v>464</v>
       </c>
       <c r="E122" t="s">
-        <v>481</v>
+        <v>493</v>
       </c>
       <c r="F122" t="s">
-        <v>482</v>
+        <v>494</v>
       </c>
       <c r="H122" t="s">
-        <v>483</v>
+        <v>495</v>
       </c>
       <c r="I122" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.25">
@@ -5214,25 +5353,25 @@
         <v>122</v>
       </c>
       <c r="B123">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="C123" t="s">
-        <v>484</v>
+        <v>463</v>
       </c>
       <c r="D123" t="s">
-        <v>380</v>
-      </c>
-      <c r="E123">
-        <v>0</v>
+        <v>464</v>
+      </c>
+      <c r="E123" t="s">
+        <v>496</v>
       </c>
       <c r="F123" t="s">
-        <v>485</v>
+        <v>497</v>
       </c>
       <c r="H123" t="s">
-        <v>486</v>
+        <v>498</v>
       </c>
       <c r="I123" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.25">
@@ -5240,25 +5379,25 @@
         <v>123</v>
       </c>
       <c r="B124">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C124" t="s">
-        <v>487</v>
+        <v>409</v>
       </c>
       <c r="D124" t="s">
-        <v>488</v>
-      </c>
-      <c r="E124">
-        <v>0</v>
+        <v>410</v>
+      </c>
+      <c r="E124" t="s">
+        <v>499</v>
       </c>
       <c r="F124" t="s">
-        <v>489</v>
+        <v>500</v>
       </c>
       <c r="H124" t="s">
-        <v>490</v>
+        <v>501</v>
       </c>
       <c r="I124" t="s">
-        <v>491</v>
+        <v>19</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.25">
@@ -5266,25 +5405,25 @@
         <v>124</v>
       </c>
       <c r="B125">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C125" t="s">
-        <v>492</v>
+        <v>463</v>
       </c>
       <c r="D125" t="s">
-        <v>493</v>
-      </c>
-      <c r="E125">
-        <v>0</v>
+        <v>464</v>
+      </c>
+      <c r="E125" t="s">
+        <v>430</v>
       </c>
       <c r="F125" t="s">
-        <v>494</v>
+        <v>502</v>
       </c>
       <c r="H125" t="s">
-        <v>495</v>
+        <v>503</v>
       </c>
       <c r="I125" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.25">
@@ -5292,25 +5431,25 @@
         <v>125</v>
       </c>
       <c r="B126">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C126" t="s">
-        <v>496</v>
+        <v>504</v>
       </c>
       <c r="D126" t="s">
-        <v>441</v>
+        <v>505</v>
       </c>
       <c r="E126" t="s">
-        <v>497</v>
+        <v>506</v>
       </c>
       <c r="F126" t="s">
-        <v>498</v>
+        <v>507</v>
       </c>
       <c r="H126" t="s">
-        <v>499</v>
+        <v>508</v>
       </c>
       <c r="I126" t="s">
-        <v>28</v>
+        <v>509</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.25">
@@ -5321,22 +5460,22 @@
         <v>1</v>
       </c>
       <c r="C127" t="s">
-        <v>496</v>
+        <v>510</v>
       </c>
       <c r="D127" t="s">
-        <v>441</v>
+        <v>410</v>
       </c>
       <c r="E127" t="s">
-        <v>500</v>
+        <v>511</v>
       </c>
       <c r="F127" t="s">
-        <v>501</v>
+        <v>512</v>
       </c>
       <c r="H127" t="s">
-        <v>502</v>
+        <v>513</v>
       </c>
       <c r="I127" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.25">
@@ -5344,25 +5483,25 @@
         <v>127</v>
       </c>
       <c r="B128">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="C128" t="s">
-        <v>496</v>
+        <v>409</v>
       </c>
       <c r="D128" t="s">
-        <v>441</v>
+        <v>514</v>
       </c>
       <c r="E128" t="s">
-        <v>503</v>
+        <v>515</v>
       </c>
       <c r="F128" t="s">
-        <v>504</v>
+        <v>516</v>
       </c>
       <c r="H128" t="s">
-        <v>505</v>
+        <v>517</v>
       </c>
       <c r="I128" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.25">
@@ -5370,25 +5509,25 @@
         <v>128</v>
       </c>
       <c r="B129">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C129" t="s">
-        <v>506</v>
+        <v>409</v>
       </c>
       <c r="D129" t="s">
-        <v>507</v>
-      </c>
-      <c r="E129" t="s">
-        <v>508</v>
+        <v>410</v>
+      </c>
+      <c r="E129">
+        <v>240</v>
       </c>
       <c r="F129" t="s">
-        <v>509</v>
+        <v>518</v>
       </c>
       <c r="H129" t="s">
-        <v>510</v>
+        <v>519</v>
       </c>
       <c r="I129" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.25">
@@ -5396,25 +5535,25 @@
         <v>129</v>
       </c>
       <c r="B130">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C130" t="s">
-        <v>511</v>
+        <v>520</v>
       </c>
       <c r="D130" t="s">
-        <v>512</v>
+        <v>521</v>
       </c>
       <c r="F130" t="s">
-        <v>513</v>
+        <v>522</v>
       </c>
       <c r="G130" t="s">
-        <v>514</v>
-      </c>
-      <c r="H130" t="s">
-        <v>511</v>
+        <v>520</v>
+      </c>
+      <c r="H130">
+        <v>36103305</v>
       </c>
       <c r="I130" t="s">
-        <v>355</v>
+        <v>523</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.25">
@@ -5422,25 +5561,25 @@
         <v>130</v>
       </c>
       <c r="B131">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C131" t="s">
-        <v>515</v>
+        <v>524</v>
       </c>
       <c r="D131" t="s">
-        <v>516</v>
+        <v>525</v>
       </c>
       <c r="F131" t="s">
-        <v>517</v>
+        <v>526</v>
       </c>
       <c r="G131" t="s">
-        <v>518</v>
+        <v>527</v>
       </c>
       <c r="H131" t="s">
-        <v>515</v>
+        <v>524</v>
       </c>
       <c r="I131" t="s">
-        <v>217</v>
+        <v>528</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.25">
@@ -5448,25 +5587,25 @@
         <v>131</v>
       </c>
       <c r="B132">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C132" t="s">
-        <v>519</v>
+        <v>529</v>
       </c>
       <c r="D132" t="s">
-        <v>520</v>
+        <v>530</v>
       </c>
       <c r="F132" t="s">
-        <v>521</v>
+        <v>531</v>
       </c>
       <c r="G132" t="s">
-        <v>522</v>
+        <v>532</v>
       </c>
       <c r="H132" t="s">
-        <v>519</v>
+        <v>529</v>
       </c>
       <c r="I132" t="s">
-        <v>217</v>
+        <v>533</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.25">
@@ -5474,25 +5613,25 @@
         <v>132</v>
       </c>
       <c r="B133">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C133" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="D133" t="s">
-        <v>524</v>
+        <v>535</v>
       </c>
       <c r="F133" t="s">
-        <v>525</v>
+        <v>536</v>
       </c>
       <c r="G133" t="s">
-        <v>151</v>
+        <v>537</v>
       </c>
       <c r="H133" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="I133" t="s">
-        <v>526</v>
+        <v>538</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.25">
@@ -5500,19 +5639,19 @@
         <v>133</v>
       </c>
       <c r="B134">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C134" t="s">
-        <v>527</v>
+        <v>539</v>
       </c>
       <c r="D134" t="s">
-        <v>528</v>
+        <v>540</v>
       </c>
       <c r="F134" t="s">
-        <v>529</v>
+        <v>541</v>
       </c>
       <c r="G134" t="s">
-        <v>530</v>
+        <v>542</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.25">
@@ -5520,25 +5659,106 @@
         <v>134</v>
       </c>
       <c r="B135">
+        <v>4</v>
+      </c>
+      <c r="C135" t="s">
+        <v>543</v>
+      </c>
+      <c r="D135" t="s">
+        <v>544</v>
+      </c>
+      <c r="E135" s="1">
+        <v>4.3055555555555562E-2</v>
+      </c>
+      <c r="F135" t="s">
+        <v>545</v>
+      </c>
+      <c r="G135" t="s">
+        <v>546</v>
+      </c>
+      <c r="H135" t="s">
+        <v>547</v>
+      </c>
+      <c r="I135" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>135</v>
+      </c>
+      <c r="B136">
         <v>1</v>
       </c>
-      <c r="C135" t="s">
-        <v>531</v>
-      </c>
-      <c r="D135" t="s">
-        <v>532</v>
-      </c>
-      <c r="F135" t="s">
-        <v>533</v>
-      </c>
-      <c r="G135" t="s">
-        <v>534</v>
-      </c>
-      <c r="H135" t="s">
-        <v>531</v>
-      </c>
-      <c r="I135" t="s">
-        <v>535</v>
+      <c r="C136" t="s">
+        <v>549</v>
+      </c>
+      <c r="D136" t="s">
+        <v>550</v>
+      </c>
+      <c r="F136" t="s">
+        <v>551</v>
+      </c>
+      <c r="G136" t="s">
+        <v>552</v>
+      </c>
+      <c r="H136" t="s">
+        <v>549</v>
+      </c>
+      <c r="I136" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>136</v>
+      </c>
+      <c r="B137">
+        <v>1</v>
+      </c>
+      <c r="C137" t="s">
+        <v>554</v>
+      </c>
+      <c r="D137" t="s">
+        <v>555</v>
+      </c>
+      <c r="F137" t="s">
+        <v>556</v>
+      </c>
+      <c r="G137" t="s">
+        <v>557</v>
+      </c>
+      <c r="H137" t="s">
+        <v>558</v>
+      </c>
+      <c r="I137" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>137</v>
+      </c>
+      <c r="B138">
+        <v>1</v>
+      </c>
+      <c r="C138" t="s">
+        <v>559</v>
+      </c>
+      <c r="D138" t="s">
+        <v>560</v>
+      </c>
+      <c r="F138" t="s">
+        <v>561</v>
+      </c>
+      <c r="G138" t="s">
+        <v>559</v>
+      </c>
+      <c r="H138" t="s">
+        <v>562</v>
+      </c>
+      <c r="I138" t="s">
+        <v>285</v>
       </c>
     </row>
   </sheetData>

--- a/ARTIQ_EE/Sayma_RTM.xlsx
+++ b/ARTIQ_EE/Sayma_RTM.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25170" windowHeight="11250"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23010" windowHeight="9465"/>
   </bookViews>
   <sheets>
     <sheet name="Sayma_RTM" sheetId="1" r:id="rId1"/>
@@ -200,7 +200,7 @@
     <t>Capacitor - non polarized CAPC1608X90N</t>
   </si>
   <si>
-    <t>C144-C158,C247-C267,C272,C306,C385,C609,C613,C622,C627,C628,C669-C672,C674-C676,C766,C767,C841,C842,C925,C926</t>
+    <t>C144-C158,C247-C267,C272,C306,C385,C609,C613,C622,C627,C628,C669-C672,C674-C676,C766,C767,C841,C842,C925,C926,C935</t>
   </si>
   <si>
     <t>CAPC1608X90N</t>
@@ -239,7 +239,7 @@
     <t>Low ESR 0R9 Solid Tantalum Chip Capacitor</t>
   </si>
   <si>
-    <t>C270,C271,C597,C598,C610,C614,C891-C910,C927-C929</t>
+    <t>C270,C271,C597,C598,C610,C614,C891-C910,C927-C929,C936</t>
   </si>
   <si>
     <t>CAPMP3216X180N</t>
@@ -407,7 +407,7 @@
     <t>CTE6032-28_47UF_16V_10%_LESR0350</t>
   </si>
   <si>
-    <t>C734-C765,C916-C924</t>
+    <t>C734-C765,C916-C924,C934</t>
   </si>
   <si>
     <t>CC0603_10uF_6.3V_20%_X5R</t>
@@ -566,7 +566,7 @@
     <t>20V , 500mA, Ultralow Noise,  Ultrahigh PSRR Linear Regulator</t>
   </si>
   <si>
-    <t>IC5-IC20,IC23-IC28,IC30-IC32,IC55,IC60-IC63</t>
+    <t>IC5-IC20,IC23-IC28,IC30-IC32,IC55,IC60-IC63,IC65</t>
   </si>
   <si>
     <t>SON50P300X300X80-11N-R175X248</t>
@@ -869,16 +869,16 @@
     <t>CINCH CONNECTIVITY</t>
   </si>
   <si>
-    <t>SAMTEC_LSS-120-03-L-DV-A</t>
-  </si>
-  <si>
-    <t>40 Contacts, Pitch 0.635mm, Razor Beam LSS Vertical High Speed Hermaphroditic Strip (Lead Style 5.49mm)</t>
+    <t>SAMTEC_LSS-120-01-L-DV-A</t>
+  </si>
+  <si>
+    <t>40 Contacts, Pitch 0.635mm, Razor Beam LSS Vertical High Speed Hermaphroditic Strip (Lead Style 4.50mm)</t>
   </si>
   <si>
     <t>J5-J9</t>
   </si>
   <si>
-    <t>LSS-120-03-L-DV-A</t>
+    <t>LSS-120-01-L-DV-A</t>
   </si>
   <si>
     <t>SAMTEC</t>
@@ -1007,7 +1007,7 @@
     <t>120R@100MHz</t>
   </si>
   <si>
-    <t>L4,L8,L36,L37,L41-L59,L73-L77,L84,L85,L87-L89</t>
+    <t>L4,L8,L36,L37,L41-L59,L73-L77,L84,L85,L87-L89,L93</t>
   </si>
   <si>
     <t>BLM18PG121SN1D</t>
@@ -1469,7 +1469,7 @@
     <t>33k2</t>
   </si>
   <si>
-    <t>R223-R225,R243,R248,R287,R288,R301-R304</t>
+    <t>R223-R225,R243,R248,R287,R288,R301-R304,R317</t>
   </si>
   <si>
     <t>R0603_33K2_0.1%_0.063W_10PPM</t>
@@ -2353,7 +2353,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C12" t="s">
         <v>57</v>
@@ -2440,7 +2440,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C15" t="s">
         <v>69</v>
@@ -2988,7 +2988,7 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C34" t="s">
         <v>80</v>
@@ -3321,7 +3321,7 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C46" t="s">
         <v>178</v>
@@ -4176,7 +4176,7 @@
         <v>78</v>
       </c>
       <c r="B79">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C79" t="s">
         <v>325</v>
@@ -5223,7 +5223,7 @@
         <v>117</v>
       </c>
       <c r="B118">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C118" t="s">
         <v>463</v>
